--- a/disagreement_matrix/engineering_version/rsj_matrix_records/wine_ido.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/wine_ido.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,3749 +394,3359 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.008347099247193698</v>
+        <v>0.008298123471871146</v>
       </c>
       <c r="C2">
-        <v>0.01097783394455216</v>
+        <v>0.01139725615748992</v>
       </c>
       <c r="D2">
-        <v>0.3454346913235597</v>
+        <v>0.3665283632278926</v>
       </c>
       <c r="E2">
-        <v>0.2811066453213793</v>
+        <v>0.2811947379951965</v>
       </c>
       <c r="F2">
-        <v>0.3190127858922633</v>
+        <v>0.307285522734269</v>
       </c>
       <c r="G2">
-        <v>0.01190282040362257</v>
+        <v>0.01251259207268147</v>
       </c>
       <c r="H2">
-        <v>0.01241129174152956</v>
-      </c>
-      <c r="I2">
-        <v>0.01080683212589977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.0127834043405993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01062886183285289</v>
+        <v>0.01029544136230351</v>
       </c>
       <c r="C3">
-        <v>0.01579976817294096</v>
+        <v>0.01522733604912748</v>
       </c>
       <c r="D3">
-        <v>0.2853773412410338</v>
+        <v>0.2925395965368798</v>
       </c>
       <c r="E3">
-        <v>0.1915146464714971</v>
+        <v>0.1999685205375789</v>
       </c>
       <c r="F3">
-        <v>0.4450622432314884</v>
+        <v>0.4425214309061412</v>
       </c>
       <c r="G3">
-        <v>0.01852933288278434</v>
+        <v>0.01838073668042022</v>
       </c>
       <c r="H3">
-        <v>0.01934094307924726</v>
-      </c>
-      <c r="I3">
-        <v>0.01374686308815527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.02106693792754883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02564034785725956</v>
+        <v>0.0255146139909041</v>
       </c>
       <c r="C4">
-        <v>0.02875936634877043</v>
+        <v>0.02895965966181398</v>
       </c>
       <c r="D4">
-        <v>0.2400938027216159</v>
+        <v>0.2490594611495156</v>
       </c>
       <c r="E4">
-        <v>0.2368805214221466</v>
+        <v>0.2445680275672805</v>
       </c>
       <c r="F4">
-        <v>0.3706371475297517</v>
+        <v>0.3851465257037782</v>
       </c>
       <c r="G4">
-        <v>0.03047984237252604</v>
+        <v>0.03097749077556422</v>
       </c>
       <c r="H4">
-        <v>0.03562259550328933</v>
-      </c>
-      <c r="I4">
-        <v>0.0318863762446404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.03577422115114355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01255968806553656</v>
+        <v>0.01258555889430014</v>
       </c>
       <c r="C5">
-        <v>0.01354110296105747</v>
+        <v>0.01445072208551968</v>
       </c>
       <c r="D5">
-        <v>0.4587277389798985</v>
+        <v>0.4508498532302215</v>
       </c>
       <c r="E5">
-        <v>0.1223820494625234</v>
+        <v>0.1180033874445377</v>
       </c>
       <c r="F5">
-        <v>0.349497043436157</v>
+        <v>0.3716007583268738</v>
       </c>
       <c r="G5">
-        <v>0.01626865170540882</v>
+        <v>0.01730452355567191</v>
       </c>
       <c r="H5">
-        <v>0.01425830386693745</v>
-      </c>
-      <c r="I5">
-        <v>0.01276542152248075</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.01520519646287531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.009463784871135821</v>
+        <v>0.009448836113002138</v>
       </c>
       <c r="C6">
-        <v>0.01807465414950878</v>
+        <v>0.01883386166324692</v>
       </c>
       <c r="D6">
-        <v>0.3342068338337669</v>
+        <v>0.3406099533180707</v>
       </c>
       <c r="E6">
-        <v>0.1297630468009927</v>
+        <v>0.117089794119139</v>
       </c>
       <c r="F6">
-        <v>0.4629621265056038</v>
+        <v>0.4800621844730075</v>
       </c>
       <c r="G6">
-        <v>0.01687018694469375</v>
+        <v>0.01760012455652076</v>
       </c>
       <c r="H6">
-        <v>0.01804954136827686</v>
-      </c>
-      <c r="I6">
-        <v>0.01060982552602161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.01635524575701314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.019797824929176</v>
+        <v>0.01964500217802625</v>
       </c>
       <c r="C7">
-        <v>0.02745665219317745</v>
+        <v>0.02775700385946433</v>
       </c>
       <c r="D7">
-        <v>0.2331116456823785</v>
+        <v>0.237342335978346</v>
       </c>
       <c r="E7">
-        <v>0.2946090365535359</v>
+        <v>0.3121079007264086</v>
       </c>
       <c r="F7">
-        <v>0.3466183406585953</v>
+        <v>0.3474878854061819</v>
       </c>
       <c r="G7">
-        <v>0.02577019908950483</v>
+        <v>0.0266757111287899</v>
       </c>
       <c r="H7">
-        <v>0.0281933347400252</v>
-      </c>
-      <c r="I7">
-        <v>0.02444296615360695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.02898416072278311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01074240365271577</v>
+        <v>0.01108107215148932</v>
       </c>
       <c r="C8">
-        <v>0.01916202164944065</v>
+        <v>0.02128724890070635</v>
       </c>
       <c r="D8">
-        <v>0.2542579641237445</v>
+        <v>0.2511188882238788</v>
       </c>
       <c r="E8">
-        <v>0.2735789753037292</v>
+        <v>0.2781409244098477</v>
       </c>
       <c r="F8">
-        <v>0.3591099279242739</v>
+        <v>0.364377954294729</v>
       </c>
       <c r="G8">
-        <v>0.01440645743101336</v>
+        <v>0.01580867279673251</v>
       </c>
       <c r="H8">
-        <v>0.05678975045896813</v>
-      </c>
-      <c r="I8">
-        <v>0.01195249945611448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.0581852392226164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.02158048687180176</v>
+        <v>0.02242460987094903</v>
       </c>
       <c r="C9">
-        <v>0.02981518775761456</v>
+        <v>0.03090907693226591</v>
       </c>
       <c r="D9">
-        <v>0.2821497250831905</v>
+        <v>0.2851287017845389</v>
       </c>
       <c r="E9">
-        <v>0.2271731112858921</v>
+        <v>0.233886752883184</v>
       </c>
       <c r="F9">
-        <v>0.3430813765367248</v>
+        <v>0.3583630861376986</v>
       </c>
       <c r="G9">
-        <v>0.03278271792626617</v>
+        <v>0.03410669951633644</v>
       </c>
       <c r="H9">
-        <v>0.03407553491051898</v>
-      </c>
-      <c r="I9">
-        <v>0.02934185962799119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.03518107287502723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01198296974316519</v>
+        <v>0.01071129785780112</v>
       </c>
       <c r="C10">
-        <v>0.01590500767291999</v>
+        <v>0.01418820388127019</v>
       </c>
       <c r="D10">
-        <v>0.197392037277331</v>
+        <v>0.2208356002634321</v>
       </c>
       <c r="E10">
-        <v>0.3949760665149246</v>
+        <v>0.3940548931827538</v>
       </c>
       <c r="F10">
-        <v>0.3170971073504009</v>
+        <v>0.3287670162286269</v>
       </c>
       <c r="G10">
-        <v>0.01392559936942148</v>
+        <v>0.01294198263623626</v>
       </c>
       <c r="H10">
-        <v>0.01965973224815002</v>
-      </c>
-      <c r="I10">
-        <v>0.02906147982368667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.01850100594987976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01022965125085033</v>
+        <v>0.01070340770376352</v>
       </c>
       <c r="C11">
-        <v>0.01983231540272679</v>
+        <v>0.01982298899136896</v>
       </c>
       <c r="D11">
-        <v>0.2107351303423661</v>
+        <v>0.2126592015139837</v>
       </c>
       <c r="E11">
-        <v>0.2448665913244007</v>
+        <v>0.2474638231618011</v>
       </c>
       <c r="F11">
-        <v>0.4514080678264859</v>
+        <v>0.4615485960288153</v>
       </c>
       <c r="G11">
-        <v>0.02182730570974209</v>
+        <v>0.02318570315296765</v>
       </c>
       <c r="H11">
-        <v>0.02340806885965536</v>
-      </c>
-      <c r="I11">
-        <v>0.01769286928377277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.02461627944729971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.02306657664222521</v>
+        <v>0.02316724810815156</v>
       </c>
       <c r="C12">
-        <v>0.0223859175193483</v>
+        <v>0.02344386324783568</v>
       </c>
       <c r="D12">
-        <v>0.2628545228641819</v>
+        <v>0.2749441615994056</v>
       </c>
       <c r="E12">
-        <v>0.2343546997892543</v>
+        <v>0.2402705819080067</v>
       </c>
       <c r="F12">
-        <v>0.3316860060416003</v>
+        <v>0.330194859717839</v>
       </c>
       <c r="G12">
-        <v>0.02407404762411402</v>
+        <v>0.0255712074345607</v>
       </c>
       <c r="H12">
-        <v>0.08006516338428535</v>
-      </c>
-      <c r="I12">
-        <v>0.02151306613499061</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.0824080779842007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1408874551521478</v>
+        <v>0.1687040596850134</v>
       </c>
       <c r="C13">
-        <v>0.123774281904733</v>
+        <v>0.1424026405953784</v>
       </c>
       <c r="D13">
-        <v>0.09002976836432806</v>
+        <v>0.1043732973771343</v>
       </c>
       <c r="E13">
-        <v>0.1119194992806903</v>
+        <v>0.1304519354174448</v>
       </c>
       <c r="F13">
-        <v>0.1165093267324743</v>
+        <v>0.1251147840400536</v>
       </c>
       <c r="G13">
-        <v>0.1345316710089077</v>
+        <v>0.1557644046917624</v>
       </c>
       <c r="H13">
-        <v>0.1514441293130629</v>
-      </c>
-      <c r="I13">
-        <v>0.130903868243656</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.1731888781932132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1383749439704588</v>
+        <v>0.1701495526153932</v>
       </c>
       <c r="C14">
-        <v>0.1326319920272905</v>
+        <v>0.1558722449235481</v>
       </c>
       <c r="D14">
-        <v>0.1271525781206476</v>
+        <v>0.1531222151274633</v>
       </c>
       <c r="E14">
-        <v>0.1332054195165011</v>
+        <v>0.1543684093867917</v>
       </c>
       <c r="F14">
-        <v>0.04285952539334494</v>
+        <v>0.05075205270959052</v>
       </c>
       <c r="G14">
-        <v>0.1452926480711735</v>
+        <v>0.1762170927047318</v>
       </c>
       <c r="H14">
-        <v>0.1182105750963299</v>
-      </c>
-      <c r="I14">
-        <v>0.1622723178042536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.1395184325324814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.09554775620916273</v>
+        <v>0.1096768137646951</v>
       </c>
       <c r="C15">
-        <v>0.1916392459754337</v>
+        <v>0.2333042277213324</v>
       </c>
       <c r="D15">
-        <v>0.1090306934632409</v>
+        <v>0.1291765356521866</v>
       </c>
       <c r="E15">
-        <v>0.1185416946850163</v>
+        <v>0.1440539822927748</v>
       </c>
       <c r="F15">
-        <v>0.04039045681111012</v>
+        <v>0.0480073762185875</v>
       </c>
       <c r="G15">
-        <v>0.1339620888004716</v>
+        <v>0.1655218440571051</v>
       </c>
       <c r="H15">
-        <v>0.1437147542822662</v>
-      </c>
-      <c r="I15">
-        <v>0.1671733097732984</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.1702592202933184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1307473300829886</v>
+        <v>0.1444652548882605</v>
       </c>
       <c r="C16">
-        <v>0.1251954445871794</v>
+        <v>0.1399567604311579</v>
       </c>
       <c r="D16">
-        <v>0.1243503204553451</v>
+        <v>0.1431453368081166</v>
       </c>
       <c r="E16">
-        <v>0.1296680857630667</v>
+        <v>0.1458669604835585</v>
       </c>
       <c r="F16">
-        <v>0.1861538737971843</v>
+        <v>0.2059795575750942</v>
       </c>
       <c r="G16">
-        <v>0.08935048385027418</v>
+        <v>0.1035964922855377</v>
       </c>
       <c r="H16">
-        <v>0.1038614085908675</v>
-      </c>
-      <c r="I16">
-        <v>0.110673052873094</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.1169896375282745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1084479802289541</v>
+        <v>0.1264292879023013</v>
       </c>
       <c r="C17">
-        <v>0.1150399925639845</v>
+        <v>0.1270080405405367</v>
       </c>
       <c r="D17">
-        <v>0.0986924369175913</v>
+        <v>0.110294158443675</v>
       </c>
       <c r="E17">
-        <v>0.09968565118538113</v>
+        <v>0.1139638112805858</v>
       </c>
       <c r="F17">
-        <v>0.1856937586725679</v>
+        <v>0.220808967580496</v>
       </c>
       <c r="G17">
-        <v>0.1318945660357876</v>
+        <v>0.1524917124472814</v>
       </c>
       <c r="H17">
-        <v>0.1278366878919325</v>
-      </c>
-      <c r="I17">
-        <v>0.1327089265038009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.1490040218051239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.08071364985941196</v>
+        <v>0.09137420751691412</v>
       </c>
       <c r="C18">
-        <v>0.1323093305559218</v>
+        <v>0.1528487068769166</v>
       </c>
       <c r="D18">
-        <v>0.09878805363530191</v>
+        <v>0.1267235122411409</v>
       </c>
       <c r="E18">
-        <v>0.1198920976661137</v>
+        <v>0.1495406178257687</v>
       </c>
       <c r="F18">
-        <v>0.149002588642904</v>
+        <v>0.1774244122046967</v>
       </c>
       <c r="G18">
-        <v>0.1308033969429686</v>
+        <v>0.155319520579995</v>
       </c>
       <c r="H18">
-        <v>0.1264757542173561</v>
-      </c>
-      <c r="I18">
-        <v>0.162015128480022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.146769022754568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.02059890422948787</v>
+        <v>0.02127211139431187</v>
       </c>
       <c r="C19">
-        <v>0.04424422619964156</v>
+        <v>0.04377020560180373</v>
       </c>
       <c r="D19">
-        <v>0.2641371151000406</v>
+        <v>0.2763596035779719</v>
       </c>
       <c r="E19">
-        <v>0.2564079625022052</v>
+        <v>0.262133174775343</v>
       </c>
       <c r="F19">
-        <v>0.2787495627750532</v>
+        <v>0.2951116674153868</v>
       </c>
       <c r="G19">
-        <v>0.06536855705869316</v>
+        <v>0.06270518040449793</v>
       </c>
       <c r="H19">
-        <v>0.037186048180138</v>
-      </c>
-      <c r="I19">
-        <v>0.03330762395474037</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.03864805683068469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1071980951002539</v>
+        <v>0.1235898159027926</v>
       </c>
       <c r="C20">
-        <v>0.1451330537202439</v>
+        <v>0.1732997410570748</v>
       </c>
       <c r="D20">
-        <v>0.1207941737346067</v>
+        <v>0.1373193063978688</v>
       </c>
       <c r="E20">
-        <v>0.1126699613314982</v>
+        <v>0.1355947429495967</v>
       </c>
       <c r="F20">
-        <v>0.07119671012821691</v>
+        <v>0.08829677824281124</v>
       </c>
       <c r="G20">
-        <v>0.1446516960856488</v>
+        <v>0.16576896270508</v>
       </c>
       <c r="H20">
-        <v>0.1553516784684426</v>
-      </c>
-      <c r="I20">
-        <v>0.1430046314310889</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.1761306527447759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.07953479342764745</v>
+        <v>0.09131458818973931</v>
       </c>
       <c r="C21">
-        <v>0.1375834518678582</v>
+        <v>0.1482145799159966</v>
       </c>
       <c r="D21">
-        <v>0.1736773690575641</v>
+        <v>0.1880562768269153</v>
       </c>
       <c r="E21">
-        <v>0.1221558151887853</v>
+        <v>0.1382701260427642</v>
       </c>
       <c r="F21">
-        <v>0.1964647322468314</v>
+        <v>0.215152956930535</v>
       </c>
       <c r="G21">
-        <v>0.0950323928536151</v>
+        <v>0.1075764907358203</v>
       </c>
       <c r="H21">
-        <v>0.09947331496196046</v>
-      </c>
-      <c r="I21">
-        <v>0.09607813039573808</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.1114149813582294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.02032520908951782</v>
+        <v>0.02373668290884625</v>
       </c>
       <c r="C22">
-        <v>0.02923443476235175</v>
+        <v>0.03247284345371905</v>
       </c>
       <c r="D22">
-        <v>0.3361675917752341</v>
+        <v>0.2996998496470116</v>
       </c>
       <c r="E22">
-        <v>0.1452762158969486</v>
+        <v>0.1347683010279653</v>
       </c>
       <c r="F22">
-        <v>0.3939809071374769</v>
+        <v>0.4408298112478547</v>
       </c>
       <c r="G22">
-        <v>0.03212941398041987</v>
+        <v>0.04061985924247487</v>
       </c>
       <c r="H22">
-        <v>0.0275385861563463</v>
-      </c>
-      <c r="I22">
-        <v>0.01534764120170465</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.02787265247212828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.08516153393689134</v>
+        <v>0.09171227907505085</v>
       </c>
       <c r="C23">
-        <v>0.07048809406620492</v>
+        <v>0.07652065327345191</v>
       </c>
       <c r="D23">
-        <v>0.1439634761798238</v>
+        <v>0.1547936471865611</v>
       </c>
       <c r="E23">
-        <v>0.1130837292172536</v>
+        <v>0.1207531320059098</v>
       </c>
       <c r="F23">
-        <v>0.3135316349359481</v>
+        <v>0.3486439453952453</v>
       </c>
       <c r="G23">
-        <v>0.09066422613692608</v>
+        <v>0.1000001342469098</v>
       </c>
       <c r="H23">
-        <v>0.09680439175895157</v>
-      </c>
-      <c r="I23">
-        <v>0.08630291376800053</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.1075762088168713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.04845224585400143</v>
+        <v>0.05113190752374503</v>
       </c>
       <c r="C24">
-        <v>0.07916653058292641</v>
+        <v>0.08613662276109278</v>
       </c>
       <c r="D24">
-        <v>0.1482094243554083</v>
+        <v>0.1682572717536508</v>
       </c>
       <c r="E24">
-        <v>0.1670651673633236</v>
+        <v>0.1936486257844595</v>
       </c>
       <c r="F24">
-        <v>0.3134618240152887</v>
+        <v>0.3348336204971399</v>
       </c>
       <c r="G24">
-        <v>0.07923644182252683</v>
+        <v>0.08541431509003779</v>
       </c>
       <c r="H24">
-        <v>0.0759489202928196</v>
-      </c>
-      <c r="I24">
-        <v>0.08845944571370501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.08057763658987416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1389125111618053</v>
+        <v>0.1793884828122425</v>
       </c>
       <c r="C25">
-        <v>0.1096915909196882</v>
+        <v>0.1405548918432817</v>
       </c>
       <c r="D25">
-        <v>0.06174325984948695</v>
+        <v>0.07634173088027055</v>
       </c>
       <c r="E25">
-        <v>0.09890669824344972</v>
+        <v>0.1301307892895559</v>
       </c>
       <c r="F25">
-        <v>0.02750767389048124</v>
+        <v>0.03592426653009562</v>
       </c>
       <c r="G25">
-        <v>0.1770528857616463</v>
+        <v>0.2184587898333915</v>
       </c>
       <c r="H25">
-        <v>0.1791975686069906</v>
-      </c>
-      <c r="I25">
-        <v>0.2069878115664516</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.2192010488111622</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.03588367253771774</v>
+        <v>0.03804460526655399</v>
       </c>
       <c r="C26">
-        <v>0.01234347263544128</v>
+        <v>0.01229186840243359</v>
       </c>
       <c r="D26">
-        <v>0.309261624552642</v>
+        <v>0.30936048582856</v>
       </c>
       <c r="E26">
-        <v>0.2701392080860127</v>
+        <v>0.2925893265813417</v>
       </c>
       <c r="F26">
-        <v>0.3344238833270518</v>
+        <v>0.3240628085013253</v>
       </c>
       <c r="G26">
-        <v>0.01229814213010788</v>
+        <v>0.01243269219958234</v>
       </c>
       <c r="H26">
-        <v>0.01075130609945561</v>
-      </c>
-      <c r="I26">
-        <v>0.01489869063157105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.01121821322020319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.0465238020890338</v>
+        <v>0.04821476170580146</v>
       </c>
       <c r="C27">
-        <v>0.03985794024111677</v>
+        <v>0.04227263011682698</v>
       </c>
       <c r="D27">
-        <v>0.2289827282825975</v>
+        <v>0.2471514841066834</v>
       </c>
       <c r="E27">
-        <v>0.2015236730953249</v>
+        <v>0.224811638638045</v>
       </c>
       <c r="F27">
-        <v>0.3226073994431817</v>
+        <v>0.3277004234151222</v>
       </c>
       <c r="G27">
-        <v>0.04649645641867246</v>
+        <v>0.0493642424918403</v>
       </c>
       <c r="H27">
-        <v>0.05898057724676976</v>
-      </c>
-      <c r="I27">
-        <v>0.05502742318330309</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.06048481952568072</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.1047875959026365</v>
+        <v>0.1190978767097498</v>
       </c>
       <c r="C28">
-        <v>0.1444254498710956</v>
+        <v>0.1677049659046568</v>
       </c>
       <c r="D28">
-        <v>0.1052976378000836</v>
+        <v>0.1232285826115043</v>
       </c>
       <c r="E28">
-        <v>0.1447608878046893</v>
+        <v>0.1684895207346439</v>
       </c>
       <c r="F28">
-        <v>0.09854930111967117</v>
+        <v>0.1231222298541904</v>
       </c>
       <c r="G28">
-        <v>0.1460569730591386</v>
+        <v>0.1646620033711362</v>
       </c>
       <c r="H28">
-        <v>0.1107984614486416</v>
-      </c>
-      <c r="I28">
-        <v>0.1453236929940439</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.1336948208141187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.0728930960130649</v>
+        <v>0.0814332493383875</v>
       </c>
       <c r="C29">
-        <v>0.09678873466099028</v>
+        <v>0.1052637913812487</v>
       </c>
       <c r="D29">
-        <v>0.1312242380136082</v>
+        <v>0.1562464484699649</v>
       </c>
       <c r="E29">
-        <v>0.1190125362820333</v>
+        <v>0.1422801955706162</v>
       </c>
       <c r="F29">
-        <v>0.188955029453886</v>
+        <v>0.2173068138485642</v>
       </c>
       <c r="G29">
-        <v>0.1153563792910339</v>
+        <v>0.1260342610401084</v>
       </c>
       <c r="H29">
-        <v>0.1432753325417998</v>
-      </c>
-      <c r="I29">
-        <v>0.1324946537435834</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.1714352403511102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1404705859209062</v>
+        <v>0.1665737374796337</v>
       </c>
       <c r="C30">
-        <v>0.1337685281827385</v>
+        <v>0.1593419882934891</v>
       </c>
       <c r="D30">
-        <v>0.09558711684119872</v>
+        <v>0.1128481952116816</v>
       </c>
       <c r="E30">
-        <v>0.114441876833467</v>
+        <v>0.1328777185381169</v>
       </c>
       <c r="F30">
-        <v>0.09426894458717551</v>
+        <v>0.1099589496106108</v>
       </c>
       <c r="G30">
-        <v>0.1407331657316593</v>
+        <v>0.1626111925926293</v>
       </c>
       <c r="H30">
-        <v>0.1311490660053503</v>
-      </c>
-      <c r="I30">
-        <v>0.1495807158975047</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.1557882182738386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.03538814641903019</v>
+        <v>0.04069272673062171</v>
       </c>
       <c r="C31">
-        <v>0.03869016658895583</v>
+        <v>0.03879716099973563</v>
       </c>
       <c r="D31">
-        <v>0.09744532121820303</v>
+        <v>0.1064283650059962</v>
       </c>
       <c r="E31">
-        <v>0.1887257775843269</v>
+        <v>0.1884165955928153</v>
       </c>
       <c r="F31">
-        <v>0.4130374863316102</v>
+        <v>0.479445313201821</v>
       </c>
       <c r="G31">
-        <v>0.05912527426332926</v>
+        <v>0.05810846807234529</v>
       </c>
       <c r="H31">
-        <v>0.07816613655219469</v>
-      </c>
-      <c r="I31">
-        <v>0.08942169104234997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.08811137039666478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1076934698152113</v>
+        <v>0.1235542043515483</v>
       </c>
       <c r="C32">
-        <v>0.1471174367998539</v>
+        <v>0.1696563646115938</v>
       </c>
       <c r="D32">
-        <v>0.1208092977336307</v>
+        <v>0.139981323050465</v>
       </c>
       <c r="E32">
-        <v>0.1339605334491508</v>
+        <v>0.1566536242171442</v>
       </c>
       <c r="F32">
-        <v>0.05388754577679861</v>
+        <v>0.06607120294630021</v>
       </c>
       <c r="G32">
-        <v>0.1310746553740554</v>
+        <v>0.152304100922344</v>
       </c>
       <c r="H32">
-        <v>0.1623034986164652</v>
-      </c>
-      <c r="I32">
-        <v>0.1431535624348341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.1917791799006044</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.04195184730996628</v>
+        <v>0.04446822539388115</v>
       </c>
       <c r="C33">
-        <v>0.06193816903873362</v>
+        <v>0.06384048201608677</v>
       </c>
       <c r="D33">
-        <v>0.202010638054643</v>
+        <v>0.2186488105602186</v>
       </c>
       <c r="E33">
-        <v>0.2065673085955826</v>
+        <v>0.2221451853733388</v>
       </c>
       <c r="F33">
-        <v>0.3168680045371869</v>
+        <v>0.3343659596142805</v>
       </c>
       <c r="G33">
-        <v>0.05135915668296677</v>
+        <v>0.05419329369240776</v>
       </c>
       <c r="H33">
-        <v>0.06110685569699771</v>
-      </c>
-      <c r="I33">
-        <v>0.05819802008392309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.06233804334978647</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1424329570539991</v>
+        <v>0.1738153576999787</v>
       </c>
       <c r="C34">
-        <v>0.1486792439094758</v>
+        <v>0.1809520395156177</v>
       </c>
       <c r="D34">
-        <v>0.08967363082962741</v>
+        <v>0.1086566559154053</v>
       </c>
       <c r="E34">
-        <v>0.09047222913488624</v>
+        <v>0.1070105922959003</v>
       </c>
       <c r="F34">
-        <v>0.07528362673818627</v>
+        <v>0.09161245186951028</v>
       </c>
       <c r="G34">
-        <v>0.1531932861497053</v>
+        <v>0.1825243904391995</v>
       </c>
       <c r="H34">
-        <v>0.1262436889601571</v>
-      </c>
-      <c r="I34">
-        <v>0.1740213372239627</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.1554285122643882</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1702289931657301</v>
+        <v>0.2041801901777718</v>
       </c>
       <c r="C35">
-        <v>0.1088292521649395</v>
+        <v>0.1313128171889504</v>
       </c>
       <c r="D35">
-        <v>0.09829000907119646</v>
+        <v>0.1181054452834097</v>
       </c>
       <c r="E35">
-        <v>0.1108533378700281</v>
+        <v>0.1350836497326877</v>
       </c>
       <c r="F35">
-        <v>0.04153442112834085</v>
+        <v>0.05071014914488504</v>
       </c>
       <c r="G35">
-        <v>0.1516594096852929</v>
+        <v>0.1882023839395616</v>
       </c>
       <c r="H35">
-        <v>0.1469057341684077</v>
-      </c>
-      <c r="I35">
-        <v>0.1716988427460644</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.1724053645327338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.1769036141232173</v>
+        <v>0.2126145797600441</v>
       </c>
       <c r="C36">
-        <v>0.1719190042852546</v>
+        <v>0.205067820120752</v>
       </c>
       <c r="D36">
-        <v>0.08097108959161771</v>
+        <v>0.1004961169510417</v>
       </c>
       <c r="E36">
-        <v>0.09932017819839677</v>
+        <v>0.1225706258336229</v>
       </c>
       <c r="F36">
-        <v>0.04777055565147817</v>
+        <v>0.05531907192851969</v>
       </c>
       <c r="G36">
-        <v>0.1198334160432992</v>
+        <v>0.1506666479616077</v>
       </c>
       <c r="H36">
-        <v>0.1296890435184153</v>
-      </c>
-      <c r="I36">
-        <v>0.1735930985883211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.1532651374444116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.111855709552891</v>
+        <v>0.1282602532434506</v>
       </c>
       <c r="C37">
-        <v>0.1488679683686395</v>
+        <v>0.1760435031715089</v>
       </c>
       <c r="D37">
-        <v>0.09231871646382724</v>
+        <v>0.1105354917681185</v>
       </c>
       <c r="E37">
-        <v>0.1148744762469738</v>
+        <v>0.1396298442989347</v>
       </c>
       <c r="F37">
-        <v>0.08662976314577482</v>
+        <v>0.1092965275499159</v>
       </c>
       <c r="G37">
-        <v>0.1507774693031659</v>
+        <v>0.1761800368002589</v>
       </c>
       <c r="H37">
-        <v>0.1409437011220551</v>
-      </c>
-      <c r="I37">
-        <v>0.1537321957966726</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.1600543431678127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1942980883021422</v>
+        <v>0.2395745326178908</v>
       </c>
       <c r="C38">
-        <v>0.1591496824757784</v>
+        <v>0.2070706027283588</v>
       </c>
       <c r="D38">
-        <v>0.06264861566857863</v>
+        <v>0.07787349191125299</v>
       </c>
       <c r="E38">
-        <v>0.08616422346398218</v>
+        <v>0.1069573222734605</v>
       </c>
       <c r="F38">
-        <v>0.03350832700333541</v>
+        <v>0.0427500933417497</v>
       </c>
       <c r="G38">
-        <v>0.1400800921701397</v>
+        <v>0.1836386870971673</v>
       </c>
       <c r="H38">
-        <v>0.1070339605019847</v>
-      </c>
-      <c r="I38">
-        <v>0.2171170104140586</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.1421352700301198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1692581742015522</v>
+        <v>0.2053152491272427</v>
       </c>
       <c r="C39">
-        <v>0.1435535141349358</v>
+        <v>0.1667120186500916</v>
       </c>
       <c r="D39">
-        <v>0.08195573070982907</v>
+        <v>0.1019912244664134</v>
       </c>
       <c r="E39">
-        <v>0.1018434987472956</v>
+        <v>0.1269940924787995</v>
       </c>
       <c r="F39">
-        <v>0.03980620925493123</v>
+        <v>0.04762866956115323</v>
       </c>
       <c r="G39">
-        <v>0.1520635166145166</v>
+        <v>0.1789549411796415</v>
       </c>
       <c r="H39">
-        <v>0.1405877072482883</v>
-      </c>
-      <c r="I39">
-        <v>0.1709316490886513</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.1724038045366581</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1590352100735744</v>
+        <v>0.1869725624688573</v>
       </c>
       <c r="C40">
-        <v>0.1554614562132264</v>
+        <v>0.1831813609016969</v>
       </c>
       <c r="D40">
-        <v>0.07676915931596816</v>
+        <v>0.09266921727597723</v>
       </c>
       <c r="E40">
-        <v>0.104996833753031</v>
+        <v>0.1248814286548686</v>
       </c>
       <c r="F40">
-        <v>0.05525230395302812</v>
+        <v>0.06587497788882035</v>
       </c>
       <c r="G40">
-        <v>0.1325218572302147</v>
+        <v>0.1618744243088834</v>
       </c>
       <c r="H40">
-        <v>0.1566196092183706</v>
-      </c>
-      <c r="I40">
-        <v>0.1593435702425864</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.1845460285008962</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1693682414119034</v>
+        <v>0.2172864345832055</v>
       </c>
       <c r="C41">
-        <v>0.1593322074842736</v>
+        <v>0.1961613299852169</v>
       </c>
       <c r="D41">
-        <v>0.05365847709369988</v>
+        <v>0.0666395307937131</v>
       </c>
       <c r="E41">
-        <v>0.07870430446761856</v>
+        <v>0.09801258124434058</v>
       </c>
       <c r="F41">
-        <v>0.02762020618993683</v>
+        <v>0.03450622116917167</v>
       </c>
       <c r="G41">
-        <v>0.1610530020271131</v>
+        <v>0.2010705296428374</v>
       </c>
       <c r="H41">
-        <v>0.1473763805894763</v>
-      </c>
-      <c r="I41">
-        <v>0.2028871807359784</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.1863233725815149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1511554613459473</v>
+        <v>0.1781007544870946</v>
       </c>
       <c r="C42">
-        <v>0.1292831892030087</v>
+        <v>0.148651907190496</v>
       </c>
       <c r="D42">
-        <v>0.1091506345952383</v>
+        <v>0.1234559439027702</v>
       </c>
       <c r="E42">
-        <v>0.1254210726086087</v>
+        <v>0.1435204144141295</v>
       </c>
       <c r="F42">
-        <v>0.07809662608568725</v>
+        <v>0.09636091136104681</v>
       </c>
       <c r="G42">
-        <v>0.1308020823440989</v>
+        <v>0.1519373926305258</v>
       </c>
       <c r="H42">
-        <v>0.1377843076624844</v>
-      </c>
-      <c r="I42">
-        <v>0.1383066261549265</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.1579726760139371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1924685411053173</v>
+        <v>0.2272751731271533</v>
       </c>
       <c r="C43">
-        <v>0.1594987343049725</v>
+        <v>0.1884547160676646</v>
       </c>
       <c r="D43">
-        <v>0.06843213079880357</v>
+        <v>0.08578863258987833</v>
       </c>
       <c r="E43">
-        <v>0.09634401135784117</v>
+        <v>0.1173894720804346</v>
       </c>
       <c r="F43">
-        <v>0.0288549265971448</v>
+        <v>0.03563069477116591</v>
       </c>
       <c r="G43">
-        <v>0.1588641315469739</v>
+        <v>0.1952638298250407</v>
       </c>
       <c r="H43">
-        <v>0.1271479868989985</v>
-      </c>
-      <c r="I43">
-        <v>0.1683895373899482</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.1501974815386624</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1621908601126849</v>
+        <v>0.1899870467307424</v>
       </c>
       <c r="C44">
-        <v>0.1304952030137684</v>
+        <v>0.1615534736913809</v>
       </c>
       <c r="D44">
-        <v>0.07989797163867382</v>
+        <v>0.09922125315215838</v>
       </c>
       <c r="E44">
-        <v>0.09534708909415694</v>
+        <v>0.1160527286372201</v>
       </c>
       <c r="F44">
-        <v>0.04309348280128466</v>
+        <v>0.0553700871822475</v>
       </c>
       <c r="G44">
-        <v>0.1629385912631754</v>
+        <v>0.1959521150071983</v>
       </c>
       <c r="H44">
-        <v>0.145990568699915</v>
-      </c>
-      <c r="I44">
-        <v>0.1800462333763409</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.1818632955990526</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.1571259079234384</v>
+        <v>0.1746192693489875</v>
       </c>
       <c r="C45">
-        <v>0.166469058909123</v>
+        <v>0.2132879946793321</v>
       </c>
       <c r="D45">
-        <v>0.08385759332919829</v>
+        <v>0.09815350964193562</v>
       </c>
       <c r="E45">
-        <v>0.1209134706097393</v>
+        <v>0.1369564094107385</v>
       </c>
       <c r="F45">
-        <v>0.03794200015903317</v>
+        <v>0.04678802256434862</v>
       </c>
       <c r="G45">
-        <v>0.1567329981489495</v>
+        <v>0.1846311141203145</v>
       </c>
       <c r="H45">
-        <v>0.1177604270103299</v>
-      </c>
-      <c r="I45">
-        <v>0.1591985439101886</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.1455636802343433</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.05915679607031054</v>
+        <v>0.06336526548060581</v>
       </c>
       <c r="C46">
-        <v>0.08345362503662655</v>
+        <v>0.08745437222503326</v>
       </c>
       <c r="D46">
-        <v>0.139314570055635</v>
+        <v>0.1497269214882462</v>
       </c>
       <c r="E46">
-        <v>0.1443259455933355</v>
+        <v>0.1540680287404818</v>
       </c>
       <c r="F46">
-        <v>0.3468853134513987</v>
+        <v>0.3928720122781253</v>
       </c>
       <c r="G46">
-        <v>0.07002650732965755</v>
+        <v>0.07391672489839864</v>
       </c>
       <c r="H46">
-        <v>0.07589107929334427</v>
-      </c>
-      <c r="I46">
-        <v>0.08094616316969182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.07859667488910912</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.08724754887560932</v>
+        <v>0.09664146703973876</v>
       </c>
       <c r="C47">
-        <v>0.1025099226523976</v>
+        <v>0.1187528791237412</v>
       </c>
       <c r="D47">
-        <v>0.1260672510407678</v>
+        <v>0.1482385004233837</v>
       </c>
       <c r="E47">
-        <v>0.1248892438045655</v>
+        <v>0.1452803018881864</v>
       </c>
       <c r="F47">
-        <v>0.2086901617044635</v>
+        <v>0.2271749471209475</v>
       </c>
       <c r="G47">
-        <v>0.1033570908350786</v>
+        <v>0.117386753888362</v>
       </c>
       <c r="H47">
-        <v>0.1306851644869391</v>
-      </c>
-      <c r="I47">
-        <v>0.1165536166001788</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.1465251505156404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.02613289072545439</v>
+        <v>0.02776040237724549</v>
       </c>
       <c r="C48">
-        <v>0.05232344817312193</v>
+        <v>0.05404852771554287</v>
       </c>
       <c r="D48">
-        <v>0.2294696932404241</v>
+        <v>0.2341993862501571</v>
       </c>
       <c r="E48">
-        <v>0.3401685521593721</v>
+        <v>0.340693532616595</v>
       </c>
       <c r="F48">
-        <v>0.2659075707677544</v>
+        <v>0.2774819024375781</v>
       </c>
       <c r="G48">
-        <v>0.03165979618632273</v>
+        <v>0.03224879341511763</v>
       </c>
       <c r="H48">
-        <v>0.0297141831383662</v>
-      </c>
-      <c r="I48">
-        <v>0.02462386560918408</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.03356745518776373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.1014987060485018</v>
+        <v>0.1171534601488498</v>
       </c>
       <c r="C49">
-        <v>0.09693459584788466</v>
+        <v>0.1095546178024666</v>
       </c>
       <c r="D49">
-        <v>0.1247259114816325</v>
+        <v>0.1383259071414002</v>
       </c>
       <c r="E49">
-        <v>0.1405524708525728</v>
+        <v>0.1550257202067225</v>
       </c>
       <c r="F49">
-        <v>0.1638434873764789</v>
+        <v>0.1976110761023651</v>
       </c>
       <c r="G49">
-        <v>0.1111447718713472</v>
+        <v>0.1262306461823469</v>
       </c>
       <c r="H49">
-        <v>0.1386591762594465</v>
-      </c>
-      <c r="I49">
-        <v>0.1226408802621357</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.1560985724158489</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.167864951068745</v>
+        <v>0.1927618597779747</v>
       </c>
       <c r="C50">
-        <v>0.1628915824320859</v>
+        <v>0.2003789487517406</v>
       </c>
       <c r="D50">
-        <v>0.09116719032599539</v>
+        <v>0.1067333816282878</v>
       </c>
       <c r="E50">
-        <v>0.1087400737764236</v>
+        <v>0.1248689407584394</v>
       </c>
       <c r="F50">
-        <v>0.03815322926037627</v>
+        <v>0.04492135131859348</v>
       </c>
       <c r="G50">
-        <v>0.1513242005472304</v>
+        <v>0.1793396394428049</v>
       </c>
       <c r="H50">
-        <v>0.1278696401900698</v>
-      </c>
-      <c r="I50">
-        <v>0.1519891323990737</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.1509958783221592</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1052535000185456</v>
+        <v>0.1222288438787591</v>
       </c>
       <c r="C51">
-        <v>0.1178149695663269</v>
+        <v>0.1329956933363639</v>
       </c>
       <c r="D51">
-        <v>0.1442681643155316</v>
+        <v>0.1677671274060263</v>
       </c>
       <c r="E51">
-        <v>0.147541083769746</v>
+        <v>0.1714360430957169</v>
       </c>
       <c r="F51">
-        <v>0.147477408404316</v>
+        <v>0.1767395384774357</v>
       </c>
       <c r="G51">
-        <v>0.09555441349661886</v>
+        <v>0.1119799444106143</v>
       </c>
       <c r="H51">
-        <v>0.1027260845351415</v>
-      </c>
-      <c r="I51">
-        <v>0.1393643758937735</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.1168528093950838</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.03670679450876922</v>
+        <v>0.03752039755499131</v>
       </c>
       <c r="C52">
-        <v>0.08673668705909097</v>
+        <v>0.09942117072321853</v>
       </c>
       <c r="D52">
-        <v>0.1588356470214436</v>
+        <v>0.1819578111642371</v>
       </c>
       <c r="E52">
-        <v>0.1563891679940942</v>
+        <v>0.1781166414419278</v>
       </c>
       <c r="F52">
-        <v>0.3241319238362934</v>
+        <v>0.3438463315174785</v>
       </c>
       <c r="G52">
-        <v>0.07572279677519636</v>
+        <v>0.0781018102443865</v>
       </c>
       <c r="H52">
-        <v>0.077729360408186</v>
-      </c>
-      <c r="I52">
-        <v>0.08374762239692614</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.0810358373537603</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.08677318315725269</v>
+        <v>0.09918278384850975</v>
       </c>
       <c r="C53">
-        <v>0.1470554932649825</v>
+        <v>0.1702736373150332</v>
       </c>
       <c r="D53">
-        <v>0.1062785521481089</v>
+        <v>0.1223830788346874</v>
       </c>
       <c r="E53">
-        <v>0.107416084373757</v>
+        <v>0.1262774914559365</v>
       </c>
       <c r="F53">
-        <v>0.149976843257201</v>
+        <v>0.1722919310750701</v>
       </c>
       <c r="G53">
-        <v>0.1028670272366861</v>
+        <v>0.115441170220975</v>
       </c>
       <c r="H53">
-        <v>0.1673904573496903</v>
-      </c>
-      <c r="I53">
-        <v>0.1322423592123214</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.194149907249788</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1649340500171191</v>
+        <v>0.2063238550795201</v>
       </c>
       <c r="C54">
-        <v>0.1420527693613153</v>
+        <v>0.1789879543911581</v>
       </c>
       <c r="D54">
-        <v>0.07268665316764816</v>
+        <v>0.09434842776613118</v>
       </c>
       <c r="E54">
-        <v>0.1027218569757746</v>
+        <v>0.1357945789659253</v>
       </c>
       <c r="F54">
-        <v>0.03457560247627434</v>
+        <v>0.04137985634357593</v>
       </c>
       <c r="G54">
-        <v>0.1411539726687028</v>
+        <v>0.1764861293065367</v>
       </c>
       <c r="H54">
-        <v>0.1418723211999397</v>
-      </c>
-      <c r="I54">
-        <v>0.2000027741332261</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.1666791981471529</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1500163365719561</v>
+        <v>0.1916381593220056</v>
       </c>
       <c r="C55">
-        <v>0.1692097007985467</v>
+        <v>0.205847995565289</v>
       </c>
       <c r="D55">
-        <v>0.06199140361642849</v>
+        <v>0.0768867691084872</v>
       </c>
       <c r="E55">
-        <v>0.09227370696429028</v>
+        <v>0.1167479869640773</v>
       </c>
       <c r="F55">
-        <v>0.03286866725140816</v>
+        <v>0.04159065078781395</v>
       </c>
       <c r="G55">
-        <v>0.1504382214449279</v>
+        <v>0.1893296212047314</v>
       </c>
       <c r="H55">
-        <v>0.142056986512356</v>
-      </c>
-      <c r="I55">
-        <v>0.2011449768400863</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.1779588170475953</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.149996416681321</v>
+        <v>0.1783276664380437</v>
       </c>
       <c r="C56">
-        <v>0.14258854352977</v>
+        <v>0.1798313327005301</v>
       </c>
       <c r="D56">
-        <v>0.06782825533995059</v>
+        <v>0.08670989769912844</v>
       </c>
       <c r="E56">
-        <v>0.1068915409619545</v>
+        <v>0.1363113069704465</v>
       </c>
       <c r="F56">
-        <v>0.0427156603551382</v>
+        <v>0.05002124210656772</v>
       </c>
       <c r="G56">
-        <v>0.1663446945558814</v>
+        <v>0.1969404496349282</v>
       </c>
       <c r="H56">
-        <v>0.1377042757826525</v>
-      </c>
-      <c r="I56">
-        <v>0.1859306127933316</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.1718581044503553</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1976099981951193</v>
+        <v>0.2447531015039533</v>
       </c>
       <c r="C57">
-        <v>0.1626189377841237</v>
+        <v>0.2051895166924105</v>
       </c>
       <c r="D57">
-        <v>0.06367760248119235</v>
+        <v>0.08108034153493203</v>
       </c>
       <c r="E57">
-        <v>0.09187678924086352</v>
+        <v>0.1147592393138925</v>
       </c>
       <c r="F57">
-        <v>0.04059938389556036</v>
+        <v>0.04979763514086773</v>
       </c>
       <c r="G57">
-        <v>0.1419356461568756</v>
+        <v>0.1781056280098295</v>
       </c>
       <c r="H57">
-        <v>0.09905546337748865</v>
-      </c>
-      <c r="I57">
-        <v>0.2026261788687765</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.1263145378041144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1195681512232659</v>
+        <v>0.1347159626823388</v>
       </c>
       <c r="C58">
-        <v>0.09115167533874675</v>
+        <v>0.09853195327310467</v>
       </c>
       <c r="D58">
-        <v>0.1377737141696116</v>
+        <v>0.1515990800321892</v>
       </c>
       <c r="E58">
-        <v>0.103773446935494</v>
+        <v>0.1161283881098968</v>
       </c>
       <c r="F58">
-        <v>0.2394911297789938</v>
+        <v>0.2755502747297054</v>
       </c>
       <c r="G58">
-        <v>0.1042292308956606</v>
+        <v>0.118133928560126</v>
       </c>
       <c r="H58">
-        <v>0.09961549100681816</v>
-      </c>
-      <c r="I58">
-        <v>0.1043971606514091</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.1053404126126391</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.2559558585916606</v>
+        <v>0.2972252628200019</v>
       </c>
       <c r="C59">
-        <v>0.1352917391153143</v>
+        <v>0.1690025472970477</v>
       </c>
       <c r="D59">
-        <v>0.05181253754892526</v>
+        <v>0.06554270587715594</v>
       </c>
       <c r="E59">
-        <v>0.07707366065932601</v>
+        <v>0.09897691631232861</v>
       </c>
       <c r="F59">
-        <v>0.01894683319937773</v>
+        <v>0.02530898934758889</v>
       </c>
       <c r="G59">
-        <v>0.162173147645108</v>
+        <v>0.2204687430545106</v>
       </c>
       <c r="H59">
-        <v>0.09403882992875331</v>
-      </c>
-      <c r="I59">
-        <v>0.2047073933115348</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.1234748352913663</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.1760400293302235</v>
+        <v>0.2387196184617819</v>
       </c>
       <c r="C60">
-        <v>0.08145596814606991</v>
+        <v>0.1095560618758828</v>
       </c>
       <c r="D60">
-        <v>0.04927196411486851</v>
+        <v>0.06583571688040085</v>
       </c>
       <c r="E60">
-        <v>0.08279515572062274</v>
+        <v>0.111886564491361</v>
       </c>
       <c r="F60">
-        <v>0.01111921550672057</v>
+        <v>0.01505645472700751</v>
       </c>
       <c r="G60">
-        <v>0.2743630610290029</v>
+        <v>0.3364196266861982</v>
       </c>
       <c r="H60">
-        <v>0.09992552460300506</v>
-      </c>
-      <c r="I60">
-        <v>0.2250290815494869</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.1225259568773678</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.09393570240762084</v>
+        <v>0.1015025054934259</v>
       </c>
       <c r="C61">
-        <v>0.1135390530357257</v>
+        <v>0.1267504901208448</v>
       </c>
       <c r="D61">
-        <v>0.1430306665829851</v>
+        <v>0.1626174802866683</v>
       </c>
       <c r="E61">
-        <v>0.1157816974311324</v>
+        <v>0.1281582068790422</v>
       </c>
       <c r="F61">
-        <v>0.2092352030624778</v>
+        <v>0.2460455455021268</v>
       </c>
       <c r="G61">
-        <v>0.1082530996894406</v>
+        <v>0.1217522372094753</v>
       </c>
       <c r="H61">
-        <v>0.1002955101418455</v>
-      </c>
-      <c r="I61">
-        <v>0.1159290676487722</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.1131735345084166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1307970501352833</v>
+        <v>0.152274409060766</v>
       </c>
       <c r="C62">
-        <v>0.1475696363766941</v>
+        <v>0.1806543946042375</v>
       </c>
       <c r="D62">
-        <v>0.08620950800197662</v>
+        <v>0.1028770787937932</v>
       </c>
       <c r="E62">
-        <v>0.1020199597511144</v>
+        <v>0.1214019254624806</v>
       </c>
       <c r="F62">
-        <v>0.08579775028239649</v>
+        <v>0.1007443462325826</v>
       </c>
       <c r="G62">
-        <v>0.1465135994164939</v>
+        <v>0.1716441332712498</v>
       </c>
       <c r="H62">
-        <v>0.1471270141986538</v>
-      </c>
-      <c r="I62">
-        <v>0.1539654818373875</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.1704037125748904</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.02160185370599723</v>
+        <v>0.01986520235507085</v>
       </c>
       <c r="C63">
-        <v>0.02308102608903896</v>
+        <v>0.02059995914900413</v>
       </c>
       <c r="D63">
-        <v>0.2372174156671537</v>
+        <v>0.2577777111347384</v>
       </c>
       <c r="E63">
-        <v>0.2411799561242567</v>
+        <v>0.2633852783628302</v>
       </c>
       <c r="F63">
-        <v>0.343353567364816</v>
+        <v>0.3720350711195133</v>
       </c>
       <c r="G63">
-        <v>0.0345435962453165</v>
+        <v>0.03139315182430728</v>
       </c>
       <c r="H63">
-        <v>0.036956466708344</v>
-      </c>
-      <c r="I63">
-        <v>0.06206611809507705</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.03494362605453598</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.1289485816808217</v>
+        <v>0.1478754171031468</v>
       </c>
       <c r="C64">
-        <v>0.1300482462746447</v>
+        <v>0.1508690093834708</v>
       </c>
       <c r="D64">
-        <v>0.09077132811957354</v>
+        <v>0.1066943624366726</v>
       </c>
       <c r="E64">
-        <v>0.09841380874580151</v>
+        <v>0.1146241150082646</v>
       </c>
       <c r="F64">
-        <v>0.153809317781128</v>
+        <v>0.1854569863931947</v>
       </c>
       <c r="G64">
-        <v>0.1264568497996198</v>
+        <v>0.1467944128623144</v>
       </c>
       <c r="H64">
-        <v>0.128103779746918</v>
-      </c>
-      <c r="I64">
-        <v>0.1434480878514928</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.1476856968129361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.02808339970654998</v>
+        <v>0.02577262882549613</v>
       </c>
       <c r="C65">
-        <v>0.08105909433395295</v>
+        <v>0.07848283377778255</v>
       </c>
       <c r="D65">
-        <v>0.1889665907379627</v>
+        <v>0.2105654460476576</v>
       </c>
       <c r="E65">
-        <v>0.2149486864916502</v>
+        <v>0.2485154416584206</v>
       </c>
       <c r="F65">
-        <v>0.2142477899784531</v>
+        <v>0.2370505965431949</v>
       </c>
       <c r="G65">
-        <v>0.09426621870917432</v>
+        <v>0.09330345586556424</v>
       </c>
       <c r="H65">
-        <v>0.1048399734426624</v>
-      </c>
-      <c r="I65">
-        <v>0.07358824659959427</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.106309597281884</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.2280713967728843</v>
+        <v>0.2679210181850377</v>
       </c>
       <c r="C66">
-        <v>0.112982490943052</v>
+        <v>0.1276487547529085</v>
       </c>
       <c r="D66">
-        <v>0.09301261983622355</v>
+        <v>0.1053180690055457</v>
       </c>
       <c r="E66">
-        <v>0.1326537114993885</v>
+        <v>0.1486311337180494</v>
       </c>
       <c r="F66">
-        <v>0.04114486128340033</v>
+        <v>0.0455125707139977</v>
       </c>
       <c r="G66">
-        <v>0.1506602059977759</v>
+        <v>0.1707679768202954</v>
       </c>
       <c r="H66">
-        <v>0.1192429196184655</v>
-      </c>
-      <c r="I66">
-        <v>0.1222317940488098</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.1342004768041656</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.145332919766905</v>
+        <v>0.1726145099612538</v>
       </c>
       <c r="C67">
-        <v>0.1519364715163965</v>
+        <v>0.1769481497576154</v>
       </c>
       <c r="D67">
-        <v>0.09228373861138034</v>
+        <v>0.1113413648944509</v>
       </c>
       <c r="E67">
-        <v>0.1193186860021821</v>
+        <v>0.1412437870056084</v>
       </c>
       <c r="F67">
-        <v>0.06576121375307137</v>
+        <v>0.07817534693507856</v>
       </c>
       <c r="G67">
-        <v>0.1286290103429148</v>
+        <v>0.1630435173764163</v>
       </c>
       <c r="H67">
-        <v>0.1259176275162683</v>
-      </c>
-      <c r="I67">
-        <v>0.1708203324908815</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.1566333240695766</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.02166752691009153</v>
+        <v>0.02220095171573245</v>
       </c>
       <c r="C68">
-        <v>0.0461764632750228</v>
+        <v>0.0443239657980453</v>
       </c>
       <c r="D68">
-        <v>0.2086717766378285</v>
+        <v>0.224855693914158</v>
       </c>
       <c r="E68">
-        <v>0.2016235570242887</v>
+        <v>0.2168431561316446</v>
       </c>
       <c r="F68">
-        <v>0.3726541609964343</v>
+        <v>0.3795500057742015</v>
       </c>
       <c r="G68">
-        <v>0.05015380806902114</v>
+        <v>0.0487121454045244</v>
       </c>
       <c r="H68">
-        <v>0.06243882299554505</v>
-      </c>
-      <c r="I68">
-        <v>0.03661388409176809</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.06351408126169392</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.1618906183219682</v>
+        <v>0.2124020681051505</v>
       </c>
       <c r="C69">
-        <v>0.1522626299481331</v>
+        <v>0.1801052910806825</v>
       </c>
       <c r="D69">
-        <v>0.07701263220434217</v>
+        <v>0.09757416873028399</v>
       </c>
       <c r="E69">
-        <v>0.09900888354561657</v>
+        <v>0.1185941734145221</v>
       </c>
       <c r="F69">
-        <v>0.04006675366472092</v>
+        <v>0.04957913245633391</v>
       </c>
       <c r="G69">
-        <v>0.1267158382199293</v>
+        <v>0.1632029373120767</v>
       </c>
       <c r="H69">
-        <v>0.1341950275648414</v>
-      </c>
-      <c r="I69">
-        <v>0.2088476165304482</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.1785422289009501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.1525516422868596</v>
+        <v>0.1834595608585</v>
       </c>
       <c r="C70">
-        <v>0.1426942196390819</v>
+        <v>0.1664800600763858</v>
       </c>
       <c r="D70">
-        <v>0.08446690784316134</v>
+        <v>0.0997969405878706</v>
       </c>
       <c r="E70">
-        <v>0.09469656577821366</v>
+        <v>0.111667484463236</v>
       </c>
       <c r="F70">
-        <v>0.1092453813879472</v>
+        <v>0.1308906231116784</v>
       </c>
       <c r="G70">
-        <v>0.1462056385288277</v>
+        <v>0.1718154113604298</v>
       </c>
       <c r="H70">
-        <v>0.1141693311355061</v>
-      </c>
-      <c r="I70">
-        <v>0.1559703134004027</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.1358899195418997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1209349358335806</v>
+        <v>0.1362136397468008</v>
       </c>
       <c r="C71">
-        <v>0.1100081702551733</v>
+        <v>0.125535835390741</v>
       </c>
       <c r="D71">
-        <v>0.1189089178668472</v>
+        <v>0.1347370222702279</v>
       </c>
       <c r="E71">
-        <v>0.1226356932491046</v>
+        <v>0.1438142829100831</v>
       </c>
       <c r="F71">
-        <v>0.1384468170090776</v>
+        <v>0.1591505023308238</v>
       </c>
       <c r="G71">
-        <v>0.136772461762926</v>
+        <v>0.1528606828958148</v>
       </c>
       <c r="H71">
-        <v>0.1246861505312507</v>
-      </c>
-      <c r="I71">
-        <v>0.1276068534920399</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.1476880344555086</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.1159528663083042</v>
+        <v>0.1432957779418956</v>
       </c>
       <c r="C72">
-        <v>0.1513974883929849</v>
+        <v>0.1778433393119797</v>
       </c>
       <c r="D72">
-        <v>0.09709877118302518</v>
+        <v>0.1156754321332277</v>
       </c>
       <c r="E72">
-        <v>0.1197104134118087</v>
+        <v>0.1414431405773995</v>
       </c>
       <c r="F72">
-        <v>0.05437802768869703</v>
+        <v>0.06789514329778566</v>
       </c>
       <c r="G72">
-        <v>0.1458805395429427</v>
+        <v>0.1794417229394088</v>
       </c>
       <c r="H72">
-        <v>0.1447090435836131</v>
-      </c>
-      <c r="I72">
-        <v>0.1708728498886243</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.1744054437983028</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.1359967176348267</v>
+        <v>0.1740670121101235</v>
       </c>
       <c r="C73">
-        <v>0.1728682043268776</v>
+        <v>0.2022717212696056</v>
       </c>
       <c r="D73">
-        <v>0.07561136455717718</v>
+        <v>0.09783005558936851</v>
       </c>
       <c r="E73">
-        <v>0.102664814710123</v>
+        <v>0.1292803286920657</v>
       </c>
       <c r="F73">
-        <v>0.03657159537201712</v>
+        <v>0.04413668709121434</v>
       </c>
       <c r="G73">
-        <v>0.153122618335144</v>
+        <v>0.1744462803050289</v>
       </c>
       <c r="H73">
-        <v>0.151184403856985</v>
-      </c>
-      <c r="I73">
-        <v>0.1719802812068495</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.1779679149425936</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.0153224984918725</v>
+        <v>0.01550497404246009</v>
       </c>
       <c r="C74">
-        <v>0.01728630952126469</v>
+        <v>0.01749217441299364</v>
       </c>
       <c r="D74">
-        <v>0.2765508293071896</v>
+        <v>0.2888040438678525</v>
       </c>
       <c r="E74">
-        <v>0.3204890991183528</v>
+        <v>0.3196186091785123</v>
       </c>
       <c r="F74">
-        <v>0.3155989246035391</v>
+        <v>0.3237625305517199</v>
       </c>
       <c r="G74">
-        <v>0.01614167258049219</v>
+        <v>0.01633390464121549</v>
       </c>
       <c r="H74">
-        <v>0.01772941113478815</v>
-      </c>
-      <c r="I74">
-        <v>0.02088125524250114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.01848376330524609</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.08892735141158423</v>
+        <v>0.09826768962710439</v>
       </c>
       <c r="C75">
-        <v>0.1074714544500305</v>
+        <v>0.1204261585834374</v>
       </c>
       <c r="D75">
-        <v>0.1279789074677194</v>
+        <v>0.1444765665941201</v>
       </c>
       <c r="E75">
-        <v>0.1472066676557581</v>
+        <v>0.1523269256879703</v>
       </c>
       <c r="F75">
-        <v>0.2376363871334335</v>
+        <v>0.2647241427051917</v>
       </c>
       <c r="G75">
-        <v>0.1196912429621864</v>
+        <v>0.1286166281993305</v>
       </c>
       <c r="H75">
-        <v>0.08780548070234886</v>
-      </c>
-      <c r="I75">
-        <v>0.0832825082169389</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.0911618886028457</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.129879446403274</v>
+        <v>0.148968967551704</v>
       </c>
       <c r="C76">
-        <v>0.08424133493083705</v>
+        <v>0.09545172085086663</v>
       </c>
       <c r="D76">
-        <v>0.126976212095647</v>
+        <v>0.1446602771965828</v>
       </c>
       <c r="E76">
-        <v>0.1257042953958873</v>
+        <v>0.1461750458172636</v>
       </c>
       <c r="F76">
-        <v>0.1949919406977348</v>
+        <v>0.2135618435409955</v>
       </c>
       <c r="G76">
-        <v>0.108792138697048</v>
+        <v>0.1276941706066856</v>
       </c>
       <c r="H76">
-        <v>0.109181996204844</v>
-      </c>
-      <c r="I76">
-        <v>0.1202326355747278</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.1234879744359019</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.03289306714093119</v>
+        <v>0.03445913585919124</v>
       </c>
       <c r="C77">
-        <v>0.04522786159639067</v>
+        <v>0.0477318815887505</v>
       </c>
       <c r="D77">
-        <v>0.2027994435940214</v>
+        <v>0.2153460038157112</v>
       </c>
       <c r="E77">
-        <v>0.192248717284841</v>
+        <v>0.2061132441418024</v>
       </c>
       <c r="F77">
-        <v>0.4011803677601173</v>
+        <v>0.4100399077818809</v>
       </c>
       <c r="G77">
-        <v>0.03888899761907304</v>
+        <v>0.04065070342373974</v>
       </c>
       <c r="H77">
-        <v>0.04334961812932554</v>
-      </c>
-      <c r="I77">
-        <v>0.04341192687529982</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.04565912338892384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.1535310534518904</v>
+        <v>0.1911956903584059</v>
       </c>
       <c r="C78">
-        <v>0.1365501890340264</v>
+        <v>0.1684455073584188</v>
       </c>
       <c r="D78">
-        <v>0.09023722601517863</v>
+        <v>0.1105482303730829</v>
       </c>
       <c r="E78">
-        <v>0.08735939736678205</v>
+        <v>0.1098827775235919</v>
       </c>
       <c r="F78">
-        <v>0.06940238210424451</v>
+        <v>0.08290626187756503</v>
       </c>
       <c r="G78">
-        <v>0.1713462493486242</v>
+        <v>0.2036006520677136</v>
       </c>
       <c r="H78">
-        <v>0.1077143376426367</v>
-      </c>
-      <c r="I78">
-        <v>0.1838591650366171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.133420880441222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.145623411310666</v>
+        <v>0.1689449506089401</v>
       </c>
       <c r="C79">
-        <v>0.1169018810500629</v>
+        <v>0.1359819922415343</v>
       </c>
       <c r="D79">
-        <v>0.09772117758081603</v>
+        <v>0.1134063489898666</v>
       </c>
       <c r="E79">
-        <v>0.1002993898988346</v>
+        <v>0.1160403697267182</v>
       </c>
       <c r="F79">
-        <v>0.1305396659368792</v>
+        <v>0.1532980701335757</v>
       </c>
       <c r="G79">
-        <v>0.1440865962607794</v>
+        <v>0.1702839931049813</v>
       </c>
       <c r="H79">
-        <v>0.1248843472153021</v>
-      </c>
-      <c r="I79">
-        <v>0.1399435307466598</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.1420442751943838</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.105178182099254</v>
+        <v>0.1183482383384155</v>
       </c>
       <c r="C80">
-        <v>0.1389396920544874</v>
+        <v>0.1548843577717343</v>
       </c>
       <c r="D80">
-        <v>0.1432666095440984</v>
+        <v>0.1563843504017742</v>
       </c>
       <c r="E80">
-        <v>0.1259938680117168</v>
+        <v>0.1404057698518701</v>
       </c>
       <c r="F80">
-        <v>0.0855483201414184</v>
+        <v>0.08778328576107101</v>
       </c>
       <c r="G80">
-        <v>0.1482262170477067</v>
+        <v>0.1706672505355323</v>
       </c>
       <c r="H80">
-        <v>0.1463043529246039</v>
-      </c>
-      <c r="I80">
-        <v>0.1065427581767143</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.1715267473396025</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.1650884353199056</v>
+        <v>0.1931268159519025</v>
       </c>
       <c r="C81">
-        <v>0.1380444239662642</v>
+        <v>0.163229293564811</v>
       </c>
       <c r="D81">
-        <v>0.08096979575514754</v>
+        <v>0.09611360471974301</v>
       </c>
       <c r="E81">
-        <v>0.09263630624312966</v>
+        <v>0.1086619123181386</v>
       </c>
       <c r="F81">
-        <v>0.1200467345477061</v>
+        <v>0.144810506199391</v>
       </c>
       <c r="G81">
-        <v>0.1313623499489264</v>
+        <v>0.1534761595212003</v>
       </c>
       <c r="H81">
-        <v>0.1166080019703466</v>
-      </c>
-      <c r="I81">
-        <v>0.1552439522485738</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.1405817077248138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.156741497145507</v>
+        <v>0.1913667065485148</v>
       </c>
       <c r="C82">
-        <v>0.1450059866207935</v>
+        <v>0.1663960211209987</v>
       </c>
       <c r="D82">
-        <v>0.08459474194194079</v>
+        <v>0.09722693963376665</v>
       </c>
       <c r="E82">
-        <v>0.09671920649238595</v>
+        <v>0.1105890865157473</v>
       </c>
       <c r="F82">
-        <v>0.05235836373286944</v>
+        <v>0.06082607373722041</v>
       </c>
       <c r="G82">
-        <v>0.158086458814424</v>
+        <v>0.1935366615867275</v>
       </c>
       <c r="H82">
-        <v>0.1448765354012885</v>
-      </c>
-      <c r="I82">
-        <v>0.1616172098507909</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.1800585108570245</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.1275177858280342</v>
+        <v>0.1446712377361141</v>
       </c>
       <c r="C83">
-        <v>0.1264675997035967</v>
+        <v>0.1517542822339214</v>
       </c>
       <c r="D83">
-        <v>0.1335452312699317</v>
+        <v>0.1515387568676148</v>
       </c>
       <c r="E83">
-        <v>0.1369965646820709</v>
+        <v>0.1561448631822729</v>
       </c>
       <c r="F83">
-        <v>0.07433350223361035</v>
+        <v>0.09295794243525676</v>
       </c>
       <c r="G83">
-        <v>0.1320830843768344</v>
+        <v>0.1510100902765324</v>
       </c>
       <c r="H83">
-        <v>0.1303228853780685</v>
-      </c>
-      <c r="I83">
-        <v>0.1387333465278532</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.1519228272682877</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.1531490491826526</v>
+        <v>0.1850593335422324</v>
       </c>
       <c r="C84">
-        <v>0.1473074764778618</v>
+        <v>0.1806313286731583</v>
       </c>
       <c r="D84">
-        <v>0.09020111051639942</v>
+        <v>0.1065449198189447</v>
       </c>
       <c r="E84">
-        <v>0.09591859031844639</v>
+        <v>0.1128201105177749</v>
       </c>
       <c r="F84">
-        <v>0.04932965813461718</v>
+        <v>0.06179054413014935</v>
       </c>
       <c r="G84">
-        <v>0.1448778996055013</v>
+        <v>0.176951913641693</v>
       </c>
       <c r="H84">
-        <v>0.1516761247725632</v>
-      </c>
-      <c r="I84">
-        <v>0.1675400909919582</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.1762018496760473</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.1167509418010187</v>
+        <v>0.1405257767711196</v>
       </c>
       <c r="C85">
-        <v>0.1394327587119311</v>
+        <v>0.168855686953973</v>
       </c>
       <c r="D85">
-        <v>0.09670713974769335</v>
+        <v>0.1181810097664352</v>
       </c>
       <c r="E85">
-        <v>0.1210460671628958</v>
+        <v>0.1454824992739851</v>
       </c>
       <c r="F85">
-        <v>0.0737395802007865</v>
+        <v>0.08794919985713419</v>
       </c>
       <c r="G85">
-        <v>0.1689258104558183</v>
+        <v>0.1970062174432938</v>
       </c>
       <c r="H85">
-        <v>0.1142196753900834</v>
-      </c>
-      <c r="I85">
-        <v>0.1691780265297728</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.141999609934059</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.1307582203106915</v>
+        <v>0.153717253487169</v>
       </c>
       <c r="C86">
-        <v>0.1391626322529491</v>
+        <v>0.1597787827893443</v>
       </c>
       <c r="D86">
-        <v>0.1070908712064971</v>
+        <v>0.1226850269706021</v>
       </c>
       <c r="E86">
-        <v>0.1176359528873637</v>
+        <v>0.1344334385172415</v>
       </c>
       <c r="F86">
-        <v>0.08409972387047433</v>
+        <v>0.1034069991930052</v>
       </c>
       <c r="G86">
-        <v>0.1479715509570303</v>
+        <v>0.1764797202446511</v>
       </c>
       <c r="H86">
-        <v>0.1265599753230348</v>
-      </c>
-      <c r="I86">
-        <v>0.1467210731919593</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.1494987787979867</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.1734225818582772</v>
+        <v>0.199388491515032</v>
       </c>
       <c r="C87">
-        <v>0.1551988395807911</v>
+        <v>0.1858173067118247</v>
       </c>
       <c r="D87">
-        <v>0.1021928504054873</v>
+        <v>0.1232550360525548</v>
       </c>
       <c r="E87">
-        <v>0.1227221085300663</v>
+        <v>0.1480759055592934</v>
       </c>
       <c r="F87">
-        <v>0.02613910207334446</v>
+        <v>0.03168890854829381</v>
       </c>
       <c r="G87">
-        <v>0.1540346620882816</v>
+        <v>0.1858712063163526</v>
       </c>
       <c r="H87">
-        <v>0.1029549319468414</v>
-      </c>
-      <c r="I87">
-        <v>0.1633349235169106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.1259031452966486</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.1957457199365336</v>
+        <v>0.2279803444852979</v>
       </c>
       <c r="C88">
-        <v>0.1344774290502143</v>
+        <v>0.1644956770047014</v>
       </c>
       <c r="D88">
-        <v>0.09404580252640525</v>
+        <v>0.112959242145067</v>
       </c>
       <c r="E88">
-        <v>0.1017192109121762</v>
+        <v>0.1198450328508551</v>
       </c>
       <c r="F88">
-        <v>0.05963245903989071</v>
+        <v>0.07276475657794391</v>
       </c>
       <c r="G88">
-        <v>0.123147630400026</v>
+        <v>0.1449798248982474</v>
       </c>
       <c r="H88">
-        <v>0.127657726993497</v>
-      </c>
-      <c r="I88">
-        <v>0.1635740211412569</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.1569751220378873</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.09210811504579675</v>
+        <v>0.1050686180924708</v>
       </c>
       <c r="C89">
-        <v>0.08778203202284467</v>
+        <v>0.09717520926533785</v>
       </c>
       <c r="D89">
-        <v>0.1201724956915595</v>
+        <v>0.1365320879931927</v>
       </c>
       <c r="E89">
-        <v>0.1055416354609356</v>
+        <v>0.1194896793371392</v>
       </c>
       <c r="F89">
-        <v>0.1561711495460505</v>
+        <v>0.1740695207273637</v>
       </c>
       <c r="G89">
-        <v>0.159884921944539</v>
+        <v>0.1820780342776731</v>
       </c>
       <c r="H89">
-        <v>0.1649226707624937</v>
-      </c>
-      <c r="I89">
-        <v>0.1134169795257802</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.1855868503068226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.1538361334631401</v>
+        <v>0.1752220932472238</v>
       </c>
       <c r="C90">
-        <v>0.1456429781935707</v>
+        <v>0.1631755467485611</v>
       </c>
       <c r="D90">
-        <v>0.1014506621245212</v>
+        <v>0.1160443247376417</v>
       </c>
       <c r="E90">
-        <v>0.1095444473005778</v>
+        <v>0.1262794441001768</v>
       </c>
       <c r="F90">
-        <v>0.1139041971979725</v>
+        <v>0.1239153135413251</v>
       </c>
       <c r="G90">
-        <v>0.1032223733945283</v>
+        <v>0.1199089972510546</v>
       </c>
       <c r="H90">
-        <v>0.1536083527006349</v>
-      </c>
-      <c r="I90">
-        <v>0.1187908556250545</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.1754542803740169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.1186831954925731</v>
+        <v>0.1467094778949173</v>
       </c>
       <c r="C91">
-        <v>0.1468118623956937</v>
+        <v>0.1766069663442615</v>
       </c>
       <c r="D91">
-        <v>0.1003277390085084</v>
+        <v>0.115466388574079</v>
       </c>
       <c r="E91">
-        <v>0.1038125229594961</v>
+        <v>0.1224965660261763</v>
       </c>
       <c r="F91">
-        <v>0.05696681112498456</v>
+        <v>0.06714758089798828</v>
       </c>
       <c r="G91">
-        <v>0.1641275238331453</v>
+        <v>0.195705131305892</v>
       </c>
       <c r="H91">
-        <v>0.1451254117714261</v>
-      </c>
-      <c r="I91">
-        <v>0.1641449334141727</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.1758678889566859</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.1307398156324858</v>
+        <v>0.159062411621153</v>
       </c>
       <c r="C92">
-        <v>0.1634316108318638</v>
+        <v>0.1922885205124807</v>
       </c>
       <c r="D92">
-        <v>0.0849558019067756</v>
+        <v>0.0985357811343311</v>
       </c>
       <c r="E92">
-        <v>0.1029336172025657</v>
+        <v>0.1192690259356809</v>
       </c>
       <c r="F92">
-        <v>0.04867560709418946</v>
+        <v>0.05770440102809037</v>
       </c>
       <c r="G92">
-        <v>0.159860911935141</v>
+        <v>0.1958934149834269</v>
       </c>
       <c r="H92">
-        <v>0.1522718944363633</v>
-      </c>
-      <c r="I92">
-        <v>0.1571307409606154</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.1772464447848369</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.1745641344412589</v>
+        <v>0.192221535159764</v>
       </c>
       <c r="C93">
-        <v>0.1555905234316835</v>
+        <v>0.1911158298525029</v>
       </c>
       <c r="D93">
-        <v>0.09540645369037713</v>
+        <v>0.1102719191371735</v>
       </c>
       <c r="E93">
-        <v>0.1051936516646158</v>
+        <v>0.1222986314479369</v>
       </c>
       <c r="F93">
-        <v>0.03492485109643403</v>
+        <v>0.04086413312052816</v>
       </c>
       <c r="G93">
-        <v>0.1423087137857006</v>
+        <v>0.1706841765250364</v>
       </c>
       <c r="H93">
-        <v>0.1382322921552405</v>
-      </c>
-      <c r="I93">
-        <v>0.1537793797346896</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.1725437747570583</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.07236660373059023</v>
+        <v>0.0780769181008046</v>
       </c>
       <c r="C94">
-        <v>0.07567270803344633</v>
+        <v>0.08196984369005468</v>
       </c>
       <c r="D94">
-        <v>0.1431143239110314</v>
+        <v>0.157258347968832</v>
       </c>
       <c r="E94">
-        <v>0.1964097251056868</v>
+        <v>0.2168458829132513</v>
       </c>
       <c r="F94">
-        <v>0.2275424008998962</v>
+        <v>0.2607168893693361</v>
       </c>
       <c r="G94">
-        <v>0.08966094657732798</v>
+        <v>0.09795686320682252</v>
       </c>
       <c r="H94">
-        <v>0.0968975694640242</v>
-      </c>
-      <c r="I94">
-        <v>0.09833572227799674</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.1071752547508988</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.1110681930349866</v>
+        <v>0.1305853750180609</v>
       </c>
       <c r="C95">
-        <v>0.151332307160251</v>
+        <v>0.1795646545960161</v>
       </c>
       <c r="D95">
-        <v>0.08128866041636046</v>
+        <v>0.09867776546695971</v>
       </c>
       <c r="E95">
-        <v>0.1047326121935731</v>
+        <v>0.1280568280470459</v>
       </c>
       <c r="F95">
-        <v>0.08253544223802826</v>
+        <v>0.1047390156722397</v>
       </c>
       <c r="G95">
-        <v>0.1572970386216039</v>
+        <v>0.1803394349212677</v>
       </c>
       <c r="H95">
-        <v>0.1520250457307472</v>
-      </c>
-      <c r="I95">
-        <v>0.1597207006044496</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.1780369262784098</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.1976835847749239</v>
+        <v>0.2228027844975837</v>
       </c>
       <c r="C96">
-        <v>0.1617911510681258</v>
+        <v>0.1854866784696018</v>
       </c>
       <c r="D96">
-        <v>0.08675192539638887</v>
+        <v>0.1069868630330208</v>
       </c>
       <c r="E96">
-        <v>0.09530049923235318</v>
+        <v>0.1101893554108852</v>
       </c>
       <c r="F96">
-        <v>0.03239210718404105</v>
+        <v>0.03622079877031333</v>
       </c>
       <c r="G96">
-        <v>0.1444765118561776</v>
+        <v>0.1776364738183367</v>
       </c>
       <c r="H96">
-        <v>0.1309439786367775</v>
-      </c>
-      <c r="I96">
-        <v>0.150660241851212</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.1606770460002584</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.08941460227094712</v>
+        <v>0.09746909330259609</v>
       </c>
       <c r="C97">
-        <v>0.07779519040577684</v>
+        <v>0.0788897953530881</v>
       </c>
       <c r="D97">
-        <v>0.1133699504322862</v>
+        <v>0.1212879414487368</v>
       </c>
       <c r="E97">
-        <v>0.1162384045759434</v>
+        <v>0.1224493384710964</v>
       </c>
       <c r="F97">
-        <v>0.3539957314926158</v>
+        <v>0.3974909727038929</v>
       </c>
       <c r="G97">
-        <v>0.07945604980400704</v>
+        <v>0.08823520996031672</v>
       </c>
       <c r="H97">
-        <v>0.08623105612153689</v>
-      </c>
-      <c r="I97">
-        <v>0.08349901489688671</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.09417764876027282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.09393268922110758</v>
+        <v>0.1003944878711831</v>
       </c>
       <c r="C98">
-        <v>0.06922666116224327</v>
+        <v>0.07413067996815491</v>
       </c>
       <c r="D98">
-        <v>0.1584849578902307</v>
+        <v>0.1759796300074876</v>
       </c>
       <c r="E98">
-        <v>0.1534417558939694</v>
+        <v>0.1705958392085732</v>
       </c>
       <c r="F98">
-        <v>0.2696372472999186</v>
+        <v>0.2994955242960464</v>
       </c>
       <c r="G98">
-        <v>0.0845367661101841</v>
+        <v>0.09157472407386971</v>
       </c>
       <c r="H98">
-        <v>0.08144278633534327</v>
-      </c>
-      <c r="I98">
-        <v>0.0892971360870029</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.08782911457468506</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.05701349800073766</v>
+        <v>0.05965396886832965</v>
       </c>
       <c r="C99">
-        <v>0.04723961971550403</v>
+        <v>0.04722985385257223</v>
       </c>
       <c r="D99">
-        <v>0.1657232199065587</v>
+        <v>0.179562562283907</v>
       </c>
       <c r="E99">
-        <v>0.2081127138603041</v>
+        <v>0.2153202702709117</v>
       </c>
       <c r="F99">
-        <v>0.3323729986056624</v>
+        <v>0.3569541144248685</v>
       </c>
       <c r="G99">
-        <v>0.06131159341726356</v>
+        <v>0.06514714568982943</v>
       </c>
       <c r="H99">
-        <v>0.07408899169504765</v>
-      </c>
-      <c r="I99">
-        <v>0.05413736479892189</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.07613208460958139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.1794054708076628</v>
+        <v>0.204673812965854</v>
       </c>
       <c r="C100">
-        <v>0.1491097285026416</v>
+        <v>0.1767044554277707</v>
       </c>
       <c r="D100">
-        <v>0.07238188648929539</v>
+        <v>0.08922709065639399</v>
       </c>
       <c r="E100">
-        <v>0.1133148466934802</v>
+        <v>0.1305918374750046</v>
       </c>
       <c r="F100">
-        <v>0.04013152658218389</v>
+        <v>0.04802856129278524</v>
       </c>
       <c r="G100">
-        <v>0.1562303965391191</v>
+        <v>0.1936922570413459</v>
       </c>
       <c r="H100">
-        <v>0.125727728213336</v>
-      </c>
-      <c r="I100">
-        <v>0.1636984161722809</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.1570819851408454</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.1752318041425144</v>
+        <v>0.2418872934647078</v>
       </c>
       <c r="C101">
-        <v>0.1386266447033394</v>
+        <v>0.1462399873871145</v>
       </c>
       <c r="D101">
-        <v>0.07861298084139043</v>
+        <v>0.1016909388315408</v>
       </c>
       <c r="E101">
-        <v>0.1004315945974259</v>
+        <v>0.1176128589851625</v>
       </c>
       <c r="F101">
-        <v>0.02749677110741252</v>
+        <v>0.03098120182180996</v>
       </c>
       <c r="G101">
-        <v>0.1333530316388297</v>
+        <v>0.1666399916244682</v>
       </c>
       <c r="H101">
-        <v>0.145632762662952</v>
-      </c>
-      <c r="I101">
-        <v>0.2006144103061357</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.194947727885196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.1034549586312547</v>
+        <v>0.1217548538650671</v>
       </c>
       <c r="C102">
-        <v>0.1301197083436691</v>
+        <v>0.1530464449480332</v>
       </c>
       <c r="D102">
-        <v>0.1081003926539034</v>
+        <v>0.1278645453603934</v>
       </c>
       <c r="E102">
-        <v>0.1315946204061038</v>
+        <v>0.1482547943374131</v>
       </c>
       <c r="F102">
-        <v>0.1250870058411754</v>
+        <v>0.145621431020092</v>
       </c>
       <c r="G102">
-        <v>0.1222261960602441</v>
+        <v>0.1382473055651181</v>
       </c>
       <c r="H102">
-        <v>0.1473739525901745</v>
-      </c>
-      <c r="I102">
-        <v>0.132043165473475</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.1652106249038832</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.107141029312044</v>
+        <v>0.1236533116974886</v>
       </c>
       <c r="C103">
-        <v>0.05399219815273019</v>
+        <v>0.06028337568030102</v>
       </c>
       <c r="D103">
-        <v>0.1619661707589311</v>
+        <v>0.184587670999517</v>
       </c>
       <c r="E103">
-        <v>0.1603744577169581</v>
+        <v>0.1841379235308058</v>
       </c>
       <c r="F103">
-        <v>0.1461958385077529</v>
+        <v>0.1715565547723505</v>
       </c>
       <c r="G103">
-        <v>0.1069953498445516</v>
+        <v>0.1293366351166524</v>
       </c>
       <c r="H103">
-        <v>0.1231808283715818</v>
-      </c>
-      <c r="I103">
-        <v>0.1401541273354503</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.1464445282028848</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.1043260528099799</v>
+        <v>0.1243405054260358</v>
       </c>
       <c r="C104">
-        <v>0.08475252551862213</v>
+        <v>0.1008548160462994</v>
       </c>
       <c r="D104">
-        <v>0.1408858798256895</v>
+        <v>0.1702674625148868</v>
       </c>
       <c r="E104">
-        <v>0.1417248425614286</v>
+        <v>0.1663986080899645</v>
       </c>
       <c r="F104">
-        <v>0.08435837045570486</v>
+        <v>0.1069624198645876</v>
       </c>
       <c r="G104">
-        <v>0.1414777440458112</v>
+        <v>0.1649526286382045</v>
       </c>
       <c r="H104">
-        <v>0.1414611294115891</v>
-      </c>
-      <c r="I104">
-        <v>0.1610134553711747</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.1662235594200215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.080595887907654</v>
+        <v>0.09054687475419794</v>
       </c>
       <c r="C105">
-        <v>0.05583869206142947</v>
+        <v>0.06199579877921425</v>
       </c>
       <c r="D105">
-        <v>0.1602572338187386</v>
+        <v>0.1713563822979651</v>
       </c>
       <c r="E105">
-        <v>0.1321574684576047</v>
+        <v>0.1430852469111147</v>
       </c>
       <c r="F105">
-        <v>0.2542853363706514</v>
+        <v>0.2978428365574005</v>
       </c>
       <c r="G105">
-        <v>0.09831378818506911</v>
+        <v>0.1099580862767255</v>
       </c>
       <c r="H105">
-        <v>0.1123906618605667</v>
-      </c>
-      <c r="I105">
-        <v>0.1061609313382861</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.1252147744233821</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.1395358533370777</v>
+        <v>0.1616314745538398</v>
       </c>
       <c r="C106">
-        <v>0.1485701250597896</v>
+        <v>0.1733109002578317</v>
       </c>
       <c r="D106">
-        <v>0.09184185729030227</v>
+        <v>0.1093389683714139</v>
       </c>
       <c r="E106">
-        <v>0.1096203414131114</v>
+        <v>0.1255653180737021</v>
       </c>
       <c r="F106">
-        <v>0.1004191630518468</v>
+        <v>0.1125497629669559</v>
       </c>
       <c r="G106">
-        <v>0.1522574840914572</v>
+        <v>0.1760241659623316</v>
       </c>
       <c r="H106">
-        <v>0.1219274673066607</v>
-      </c>
-      <c r="I106">
-        <v>0.1358277084497543</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.1415794098139251</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.1661952569375162</v>
+        <v>0.18979886961326</v>
       </c>
       <c r="C107">
-        <v>0.1467367956447642</v>
+        <v>0.1775649533716241</v>
       </c>
       <c r="D107">
-        <v>0.1026019083997357</v>
+        <v>0.1232007394708372</v>
       </c>
       <c r="E107">
-        <v>0.1099829777876026</v>
+        <v>0.1309943186439313</v>
       </c>
       <c r="F107">
-        <v>0.0443691795637172</v>
+        <v>0.05248156255816881</v>
       </c>
       <c r="G107">
-        <v>0.1415159424627913</v>
+        <v>0.1653601275909746</v>
       </c>
       <c r="H107">
-        <v>0.1366957364428147</v>
-      </c>
-      <c r="I107">
-        <v>0.1519022027610581</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.1605994287512041</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.08306217221783298</v>
+        <v>0.09781281736353133</v>
       </c>
       <c r="C108">
-        <v>0.1230166323997702</v>
+        <v>0.1375447402296569</v>
       </c>
       <c r="D108">
-        <v>0.1152138782027276</v>
+        <v>0.1361408055470286</v>
       </c>
       <c r="E108">
-        <v>0.1188029012687614</v>
+        <v>0.1402072805358356</v>
       </c>
       <c r="F108">
-        <v>0.2079606763161082</v>
+        <v>0.238923270386255</v>
       </c>
       <c r="G108">
-        <v>0.1086534413153412</v>
+        <v>0.1223436557603523</v>
       </c>
       <c r="H108">
-        <v>0.1157956950638986</v>
-      </c>
-      <c r="I108">
-        <v>0.1274946032155601</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.1270274301773402</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.1551045838302097</v>
+        <v>0.1983326907318977</v>
       </c>
       <c r="C109">
-        <v>0.1809559318377547</v>
+        <v>0.2209658160947768</v>
       </c>
       <c r="D109">
-        <v>0.0665828880975855</v>
+        <v>0.08429539010436481</v>
       </c>
       <c r="E109">
-        <v>0.1034863042662249</v>
+        <v>0.1316087902632069</v>
       </c>
       <c r="F109">
-        <v>0.02756938753997188</v>
+        <v>0.03411041963042605</v>
       </c>
       <c r="G109">
-        <v>0.1236038246124454</v>
+        <v>0.1521049640837988</v>
       </c>
       <c r="H109">
-        <v>0.1483452877511643</v>
-      </c>
-      <c r="I109">
-        <v>0.1943517920646437</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.1785819290915288</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.04903077032665392</v>
+        <v>0.04906448992860148</v>
       </c>
       <c r="C110">
-        <v>0.03086998273217109</v>
+        <v>0.03217105210969009</v>
       </c>
       <c r="D110">
-        <v>0.2114282105908342</v>
+        <v>0.2270400387566006</v>
       </c>
       <c r="E110">
-        <v>0.1506750315646826</v>
+        <v>0.1613110330220709</v>
       </c>
       <c r="F110">
-        <v>0.4065640100996671</v>
+        <v>0.4340011321098733</v>
       </c>
       <c r="G110">
-        <v>0.04478090660688113</v>
+        <v>0.04558452228955402</v>
       </c>
       <c r="H110">
-        <v>0.04810360497011133</v>
-      </c>
-      <c r="I110">
-        <v>0.05854748310899856</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.05082773178360965</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.01834625661183204</v>
+        <v>0.0172087421038446</v>
       </c>
       <c r="C111">
-        <v>0.02297853918510044</v>
+        <v>0.02111824899901189</v>
       </c>
       <c r="D111">
-        <v>0.2988147791738247</v>
+        <v>0.3167678547107404</v>
       </c>
       <c r="E111">
-        <v>0.2676428107098304</v>
+        <v>0.2784349842262265</v>
       </c>
       <c r="F111">
-        <v>0.288082532836181</v>
+        <v>0.3040778656995626</v>
       </c>
       <c r="G111">
-        <v>0.03823577362778632</v>
+        <v>0.03615667599088367</v>
       </c>
       <c r="H111">
-        <v>0.02780128352827808</v>
-      </c>
-      <c r="I111">
-        <v>0.03809802432716713</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.02623562826973037</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.05578655020927396</v>
+        <v>0.05840300086425202</v>
       </c>
       <c r="C112">
-        <v>0.05253652395905729</v>
+        <v>0.0550023750826301</v>
       </c>
       <c r="D112">
-        <v>0.1755792663551931</v>
+        <v>0.2012712126939151</v>
       </c>
       <c r="E112">
-        <v>0.1674461658329314</v>
+        <v>0.190487943231696</v>
       </c>
       <c r="F112">
-        <v>0.2279950197298337</v>
+        <v>0.2517223037971921</v>
       </c>
       <c r="G112">
-        <v>0.09171380144801537</v>
+        <v>0.09848720353900327</v>
       </c>
       <c r="H112">
-        <v>0.1304910829174798</v>
-      </c>
-      <c r="I112">
-        <v>0.09845158954821556</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.1446259607913113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.2150771882702673</v>
+        <v>0.2428931018400617</v>
       </c>
       <c r="C113">
-        <v>0.1514192489651384</v>
+        <v>0.1781227731575465</v>
       </c>
       <c r="D113">
-        <v>0.06796189483882811</v>
+        <v>0.08191953732640825</v>
       </c>
       <c r="E113">
-        <v>0.1067835941178415</v>
+        <v>0.1304697726105207</v>
       </c>
       <c r="F113">
-        <v>0.05045519295575027</v>
+        <v>0.05959429487419721</v>
       </c>
       <c r="G113">
-        <v>0.1508085294153792</v>
+        <v>0.1787087882697358</v>
       </c>
       <c r="H113">
-        <v>0.1064478132900698</v>
-      </c>
-      <c r="I113">
-        <v>0.1510465381467255</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.1282917319215299</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.15826686658293</v>
+        <v>0.1954405515873136</v>
       </c>
       <c r="C114">
-        <v>0.1771181887560626</v>
+        <v>0.2106183194079674</v>
       </c>
       <c r="D114">
-        <v>0.07217912517872162</v>
+        <v>0.08998435583357701</v>
       </c>
       <c r="E114">
-        <v>0.1023917016432834</v>
+        <v>0.1266317213819113</v>
       </c>
       <c r="F114">
-        <v>0.03589903157454762</v>
+        <v>0.04440649964902887</v>
       </c>
       <c r="G114">
-        <v>0.1680417798757865</v>
+        <v>0.1928684228815573</v>
       </c>
       <c r="H114">
-        <v>0.1159802563514442</v>
-      </c>
-      <c r="I114">
-        <v>0.1701230500372242</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.1400501292586446</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.1411450702805468</v>
+        <v>0.1679777934646124</v>
       </c>
       <c r="C115">
-        <v>0.1557938483085904</v>
+        <v>0.1819033539431923</v>
       </c>
       <c r="D115">
-        <v>0.08914353399972513</v>
+        <v>0.1061405427275514</v>
       </c>
       <c r="E115">
-        <v>0.09869265655725808</v>
+        <v>0.1177006264878294</v>
       </c>
       <c r="F115">
-        <v>0.04819984411148966</v>
+        <v>0.06143352994271087</v>
       </c>
       <c r="G115">
-        <v>0.1569337387472607</v>
+        <v>0.1854946344925216</v>
       </c>
       <c r="H115">
-        <v>0.1525173649850697</v>
-      </c>
-      <c r="I115">
-        <v>0.1575739430100594</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.1793495189415819</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.1303810305825154</v>
+        <v>0.157205389367754</v>
       </c>
       <c r="C116">
-        <v>0.1430718951819609</v>
+        <v>0.1716609467561531</v>
       </c>
       <c r="D116">
-        <v>0.07930543970012813</v>
+        <v>0.09420858097100045</v>
       </c>
       <c r="E116">
-        <v>0.1423788043441458</v>
+        <v>0.1932655038561463</v>
       </c>
       <c r="F116">
-        <v>0.03227433783236299</v>
+        <v>0.04053032792330935</v>
       </c>
       <c r="G116">
-        <v>0.1081162530002576</v>
+        <v>0.1351375923708619</v>
       </c>
       <c r="H116">
-        <v>0.1666480388575667</v>
-      </c>
-      <c r="I116">
-        <v>0.1978242005010624</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.2079916587547748</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.2153323874303713</v>
+        <v>0.2596875973739878</v>
       </c>
       <c r="C117">
-        <v>0.1658017887481369</v>
+        <v>0.1981421361216768</v>
       </c>
       <c r="D117">
-        <v>0.1089261762455307</v>
+        <v>0.1334203976814357</v>
       </c>
       <c r="E117">
-        <v>0.09522605902619824</v>
+        <v>0.1057188526905895</v>
       </c>
       <c r="F117">
-        <v>0.02971156501732582</v>
+        <v>0.03403785650912496</v>
       </c>
       <c r="G117">
-        <v>0.1467106620340543</v>
+        <v>0.1712709572970386</v>
       </c>
       <c r="H117">
-        <v>0.08538457168421944</v>
-      </c>
-      <c r="I117">
-        <v>0.152906789814163</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>0.09772220232614659</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.1494521157476442</v>
+        <v>0.1777930565444914</v>
       </c>
       <c r="C118">
-        <v>0.1408408788558283</v>
+        <v>0.1689364863467182</v>
       </c>
       <c r="D118">
-        <v>0.07376705290507513</v>
+        <v>0.08989008242714411</v>
       </c>
       <c r="E118">
-        <v>0.09467663191914519</v>
+        <v>0.1155454879931724</v>
       </c>
       <c r="F118">
-        <v>0.04000564028096053</v>
+        <v>0.04997814203028694</v>
       </c>
       <c r="G118">
-        <v>0.1633623015116401</v>
+        <v>0.1934028058751636</v>
       </c>
       <c r="H118">
-        <v>0.1691206286417785</v>
-      </c>
-      <c r="I118">
-        <v>0.168774750137928</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.2044539387830231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.101547674044005</v>
+        <v>0.1137149971292684</v>
       </c>
       <c r="C119">
-        <v>0.107813914125218</v>
+        <v>0.1233990619374828</v>
       </c>
       <c r="D119">
-        <v>0.107938863738353</v>
+        <v>0.1250914524382932</v>
       </c>
       <c r="E119">
-        <v>0.1382216098726599</v>
+        <v>0.1523093879900614</v>
       </c>
       <c r="F119">
-        <v>0.1702115842068678</v>
+        <v>0.202737148452099</v>
       </c>
       <c r="G119">
-        <v>0.1162614109239418</v>
+        <v>0.1313595345759049</v>
       </c>
       <c r="H119">
-        <v>0.1361509626627526</v>
-      </c>
-      <c r="I119">
-        <v>0.1218539804262019</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.1513884174768905</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.1934506599104776</v>
+        <v>0.2386240203091583</v>
       </c>
       <c r="C120">
-        <v>0.1604619732538676</v>
+        <v>0.2032900378983216</v>
       </c>
       <c r="D120">
-        <v>0.06932533720001535</v>
+        <v>0.08488624097002684</v>
       </c>
       <c r="E120">
-        <v>0.09439622149641368</v>
+        <v>0.1160302955888128</v>
       </c>
       <c r="F120">
-        <v>0.03953902037266377</v>
+        <v>0.04788642662192405</v>
       </c>
       <c r="G120">
-        <v>0.1146639005830386</v>
+        <v>0.1416594740524152</v>
       </c>
       <c r="H120">
-        <v>0.1277861319016498</v>
-      </c>
-      <c r="I120">
-        <v>0.2003767552818735</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.1676235045593412</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.1094895196861694</v>
+        <v>0.1244960448357123</v>
       </c>
       <c r="C121">
-        <v>0.1058550270769477</v>
+        <v>0.1175446253765501</v>
       </c>
       <c r="D121">
-        <v>0.1346664685280834</v>
+        <v>0.1494587209293693</v>
       </c>
       <c r="E121">
-        <v>0.1241830843887762</v>
+        <v>0.1413275228265691</v>
       </c>
       <c r="F121">
-        <v>0.1849427413983065</v>
+        <v>0.2009140162216902</v>
       </c>
       <c r="G121">
-        <v>0.1228221736910898</v>
+        <v>0.1363499402774293</v>
       </c>
       <c r="H121">
-        <v>0.1174437067685559</v>
-      </c>
-      <c r="I121">
-        <v>0.100597278462071</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.1299091295326797</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.01761826472765626</v>
+        <v>0.01593238135572352</v>
       </c>
       <c r="C122">
-        <v>0.07129831191044517</v>
+        <v>0.0706785334031404</v>
       </c>
       <c r="D122">
-        <v>0.254005512494228</v>
+        <v>0.2882724563047528</v>
       </c>
       <c r="E122">
-        <v>0.2432215594813636</v>
+        <v>0.272523122629548</v>
       </c>
       <c r="F122">
-        <v>0.1610318199404268</v>
+        <v>0.1613539059859514</v>
       </c>
       <c r="G122">
-        <v>0.08695521707077199</v>
+        <v>0.08857580168050755</v>
       </c>
       <c r="H122">
-        <v>0.09959576655363149</v>
-      </c>
-      <c r="I122">
-        <v>0.06627354782147669</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.1026637986403764</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.1918856535496166</v>
+        <v>0.2256542859560899</v>
       </c>
       <c r="C123">
-        <v>0.1332862367454866</v>
+        <v>0.1586430262724467</v>
       </c>
       <c r="D123">
-        <v>0.08045211095801952</v>
+        <v>0.09772375896075323</v>
       </c>
       <c r="E123">
-        <v>0.1066714452099699</v>
+        <v>0.1319707817151004</v>
       </c>
       <c r="F123">
-        <v>0.04123326253214148</v>
+        <v>0.0505555876846074</v>
       </c>
       <c r="G123">
-        <v>0.1232306795418008</v>
+        <v>0.1553970156606748</v>
       </c>
       <c r="H123">
-        <v>0.1520260355897263</v>
-      </c>
-      <c r="I123">
-        <v>0.1712145758732388</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.1800555437503276</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.1443112196257588</v>
+        <v>0.1730440396721563</v>
       </c>
       <c r="C124">
-        <v>0.1414684394111081</v>
+        <v>0.1670667611293999</v>
       </c>
       <c r="D124">
-        <v>0.0948390152110848</v>
+        <v>0.1111250826359223</v>
       </c>
       <c r="E124">
-        <v>0.1158242768178102</v>
+        <v>0.1360209753746062</v>
       </c>
       <c r="F124">
-        <v>0.05019892744844934</v>
+        <v>0.06292045100070161</v>
       </c>
       <c r="G124">
-        <v>0.1408206114622775</v>
+        <v>0.168976998619853</v>
       </c>
       <c r="H124">
-        <v>0.1526719269193717</v>
-      </c>
-      <c r="I124">
-        <v>0.1598655831041394</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.1808456915673607</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.1487675885070317</v>
+        <v>0.180238772391794</v>
       </c>
       <c r="C125">
-        <v>0.163612802287836</v>
+        <v>0.1956608582251439</v>
       </c>
       <c r="D125">
-        <v>0.09166342888899633</v>
+        <v>0.1074038440172677</v>
       </c>
       <c r="E125">
-        <v>0.1141563129023736</v>
+        <v>0.1340302936543759</v>
       </c>
       <c r="F125">
-        <v>0.04429509542804886</v>
+        <v>0.05428065537895162</v>
       </c>
       <c r="G125">
-        <v>0.1384429960016911</v>
+        <v>0.165698674929534</v>
       </c>
       <c r="H125">
-        <v>0.1331765232158715</v>
-      </c>
-      <c r="I125">
-        <v>0.165885252768151</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.162686901402933</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.0957159276954662</v>
+        <v>0.1088582908860574</v>
       </c>
       <c r="C126">
-        <v>0.103000569319769</v>
+        <v>0.1156004504245386</v>
       </c>
       <c r="D126">
-        <v>0.1006091062705682</v>
+        <v>0.1164403412997013</v>
       </c>
       <c r="E126">
-        <v>0.1237614032848731</v>
+        <v>0.1417409029017367</v>
       </c>
       <c r="F126">
-        <v>0.2399497885054385</v>
+        <v>0.2552581521393076</v>
       </c>
       <c r="G126">
-        <v>0.1134014363402883</v>
+        <v>0.1216650992681294</v>
       </c>
       <c r="H126">
-        <v>0.1226487779145413</v>
-      </c>
-      <c r="I126">
-        <v>0.1009129906690553</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.1404367630805292</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.1340778765251838</v>
+        <v>0.1548049254574935</v>
       </c>
       <c r="C127">
-        <v>0.1401616077629986</v>
+        <v>0.1627462330974309</v>
       </c>
       <c r="D127">
-        <v>0.12255392137824</v>
+        <v>0.1410442755985065</v>
       </c>
       <c r="E127">
-        <v>0.09570014979305916</v>
+        <v>0.1084750096926101</v>
       </c>
       <c r="F127">
-        <v>0.1440755188019996</v>
+        <v>0.169748281574303</v>
       </c>
       <c r="G127">
-        <v>0.1238385354685848</v>
+        <v>0.1427355656294821</v>
       </c>
       <c r="H127">
-        <v>0.1039045530320745</v>
-      </c>
-      <c r="I127">
-        <v>0.1356878372378597</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.1204457089501738</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.09011575836360364</v>
+        <v>0.09448714597357545</v>
       </c>
       <c r="C128">
-        <v>0.05484891900072199</v>
+        <v>0.05918327265876051</v>
       </c>
       <c r="D128">
-        <v>0.1807664361943586</v>
+        <v>0.1987037218731151</v>
       </c>
       <c r="E128">
-        <v>0.1069925750458141</v>
+        <v>0.1112802441933412</v>
       </c>
       <c r="F128">
-        <v>0.3681202027692608</v>
+        <v>0.4017581416212941</v>
       </c>
       <c r="G128">
-        <v>0.06172997249827036</v>
+        <v>0.06478344746340096</v>
       </c>
       <c r="H128">
-        <v>0.06654309311636818</v>
-      </c>
-      <c r="I128">
-        <v>0.07088304301160248</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.06980402621651259</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.1021337022668244</v>
+        <v>0.1089437694020777</v>
       </c>
       <c r="C129">
-        <v>0.06366333430628499</v>
+        <v>0.06804447334679704</v>
       </c>
       <c r="D129">
-        <v>0.1485290157451568</v>
+        <v>0.1564084016853428</v>
       </c>
       <c r="E129">
-        <v>0.1062062525566651</v>
+        <v>0.1106374865807829</v>
       </c>
       <c r="F129">
-        <v>0.365047006676321</v>
+        <v>0.4071731191879369</v>
       </c>
       <c r="G129">
-        <v>0.06593083903313035</v>
+        <v>0.07163105797299832</v>
       </c>
       <c r="H129">
-        <v>0.0726280913200152</v>
-      </c>
-      <c r="I129">
-        <v>0.07586175809560221</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.07716169182406432</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.06204656757066705</v>
+        <v>0.07093136815838474</v>
       </c>
       <c r="C130">
-        <v>0.101028626755742</v>
+        <v>0.1163805776188602</v>
       </c>
       <c r="D130">
-        <v>0.1424955301389515</v>
+        <v>0.1572031645789481</v>
       </c>
       <c r="E130">
-        <v>0.1491663235208631</v>
+        <v>0.1675980337676895</v>
       </c>
       <c r="F130">
-        <v>0.2283143200802369</v>
+        <v>0.2516073810682377</v>
       </c>
       <c r="G130">
-        <v>0.08733593296926165</v>
+        <v>0.0985168459957312</v>
       </c>
       <c r="H130">
-        <v>0.1241665398816391</v>
-      </c>
-      <c r="I130">
-        <v>0.1054461590826387</v>
+        <v>0.1377626288121487</v>
       </c>
     </row>
   </sheetData>
